--- a/src/template/深圳机场统一运维项目排班表.xlsx
+++ b/src/template/深圳机场统一运维项目排班表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhang/digitalchina/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0B9189-CEA6-4D40-B0C7-079531BB0208}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="32700" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12380"/>
   </bookViews>
   <sheets>
     <sheet name="7月排班表" sheetId="19" r:id="rId1"/>
@@ -23,33 +17,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+  <si>
+    <t>深圳机场统一运维项目排班表-2020年7月</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>时间段</t>
+  </si>
+  <si>
+    <t>值班组长</t>
+  </si>
+  <si>
+    <t>云计算</t>
+  </si>
+  <si>
+    <t>机位/IOC</t>
+  </si>
+  <si>
+    <t>ROMA</t>
+  </si>
+  <si>
+    <t>UCC</t>
+  </si>
   <si>
     <t>大数据</t>
-  </si>
-  <si>
-    <t>深圳机场统一运维项目排班表-2020年7月</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>时间段</t>
-  </si>
-  <si>
-    <t>值班组长</t>
-  </si>
-  <si>
-    <t>云计算</t>
-  </si>
-  <si>
-    <t>机位/IOC</t>
-  </si>
-  <si>
-    <t>ROMA</t>
-  </si>
-  <si>
-    <t>UCC</t>
   </si>
   <si>
     <t>数通网络</t>
@@ -218,15 +212,9 @@
     <t>LTE运维负责人：刘云鹏（13699885905）</t>
   </si>
   <si>
-    <t>IT云计算</t>
-  </si>
-  <si>
     <t>欧桂超</t>
   </si>
   <si>
-    <t>后端</t>
-  </si>
-  <si>
     <t>何展</t>
   </si>
   <si>
@@ -242,9 +230,6 @@
     <t>大数据运维负责人：邹鹏锦（16620143375）</t>
   </si>
   <si>
-    <t>机位分配/IOC</t>
-  </si>
-  <si>
     <t>苏自豪</t>
   </si>
   <si>
@@ -255,17 +240,19 @@
   </si>
   <si>
     <t>侯协江</t>
-  </si>
-  <si>
-    <t>后端</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,7 +263,6 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -284,59 +270,196 @@
       <b/>
       <sz val="20"/>
       <name val="华文中宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="4"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,42 +480,228 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79979857783745845"/>
+        <fgColor theme="9" tint="0.799798577837458"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79992065187536243"/>
+        <fgColor theme="9" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79989013336588644"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79976805932798245"/>
+        <fgColor theme="9" tint="0.799768059327982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -452,29 +761,271 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -491,6 +1042,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,64 +1054,73 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,40 +1132,46 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -611,52 +1180,75 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="55">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="常规 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="常规 4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="常规 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 6" xfId="1"/>
+    <cellStyle name="常规 5" xfId="2"/>
+    <cellStyle name="常规 4 2" xfId="3"/>
+    <cellStyle name="常规 4" xfId="4"/>
+    <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="6" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="7" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
+    <cellStyle name="输入" xfId="9" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="10" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="11" builtinId="38"/>
+    <cellStyle name="货币" xfId="12" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="13" builtinId="37"/>
+    <cellStyle name="百分比" xfId="14" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="16" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="17" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="18" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="19" builtinId="44"/>
+    <cellStyle name="计算" xfId="20" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="21" builtinId="29"/>
+    <cellStyle name="适中" xfId="22" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="23" builtinId="46"/>
+    <cellStyle name="好" xfId="24" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="25" builtinId="30"/>
+    <cellStyle name="汇总" xfId="26" builtinId="25"/>
+    <cellStyle name="差" xfId="27" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="28" builtinId="23"/>
+    <cellStyle name="输出" xfId="29" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="30" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="31" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="32" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="33" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="34" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="35" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="36" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9"/>
+    <cellStyle name="标题" xfId="38" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="40" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="41" builtinId="40"/>
+    <cellStyle name="注释" xfId="42" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="43" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="47" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="48" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="49" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="50" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="51" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="52" builtinId="31"/>
+    <cellStyle name="常规 3" xfId="53"/>
+    <cellStyle name="链接单元格" xfId="54" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFFF00"/>
-      <color rgb="FFFF0000"/>
-      <color rgb="FF1829FE"/>
+      <color rgb="00FFFF00"/>
+      <color rgb="00FF0000"/>
+      <color rgb="001829FE"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -914,3308 +1506,3298 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K82" sqref="K82"/>
+      <selection pane="bottomRight" activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.8303571428571" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.1607142857143" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.8303571428571" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.8303571428571" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.8303571428571" style="3" customWidth="1"/>
+    <col min="6" max="8" width="16.8303571428571" style="3" customWidth="1"/>
     <col min="9" max="9" width="18" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.8303571428571" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.8303571428571" style="5" customWidth="1"/>
     <col min="12" max="252" width="9" style="2"/>
-    <col min="253" max="253" width="21.83203125" style="2" customWidth="1"/>
+    <col min="253" max="253" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="254" max="254" width="17.5" style="2" customWidth="1"/>
     <col min="255" max="260" width="16.5" style="2" customWidth="1"/>
     <col min="261" max="508" width="9" style="2"/>
-    <col min="509" max="509" width="21.83203125" style="2" customWidth="1"/>
+    <col min="509" max="509" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="510" max="510" width="17.5" style="2" customWidth="1"/>
     <col min="511" max="516" width="16.5" style="2" customWidth="1"/>
     <col min="517" max="764" width="9" style="2"/>
-    <col min="765" max="765" width="21.83203125" style="2" customWidth="1"/>
+    <col min="765" max="765" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="766" max="766" width="17.5" style="2" customWidth="1"/>
     <col min="767" max="772" width="16.5" style="2" customWidth="1"/>
     <col min="773" max="1020" width="9" style="2"/>
-    <col min="1021" max="1021" width="21.83203125" style="2" customWidth="1"/>
+    <col min="1021" max="1021" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="1022" max="1022" width="17.5" style="2" customWidth="1"/>
     <col min="1023" max="1028" width="16.5" style="2" customWidth="1"/>
     <col min="1029" max="1276" width="9" style="2"/>
-    <col min="1277" max="1277" width="21.83203125" style="2" customWidth="1"/>
+    <col min="1277" max="1277" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="1278" max="1278" width="17.5" style="2" customWidth="1"/>
     <col min="1279" max="1284" width="16.5" style="2" customWidth="1"/>
     <col min="1285" max="1532" width="9" style="2"/>
-    <col min="1533" max="1533" width="21.83203125" style="2" customWidth="1"/>
+    <col min="1533" max="1533" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="1534" max="1534" width="17.5" style="2" customWidth="1"/>
     <col min="1535" max="1540" width="16.5" style="2" customWidth="1"/>
     <col min="1541" max="1788" width="9" style="2"/>
-    <col min="1789" max="1789" width="21.83203125" style="2" customWidth="1"/>
+    <col min="1789" max="1789" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="1790" max="1790" width="17.5" style="2" customWidth="1"/>
     <col min="1791" max="1796" width="16.5" style="2" customWidth="1"/>
     <col min="1797" max="2044" width="9" style="2"/>
-    <col min="2045" max="2045" width="21.83203125" style="2" customWidth="1"/>
+    <col min="2045" max="2045" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="2046" max="2046" width="17.5" style="2" customWidth="1"/>
     <col min="2047" max="2052" width="16.5" style="2" customWidth="1"/>
     <col min="2053" max="2300" width="9" style="2"/>
-    <col min="2301" max="2301" width="21.83203125" style="2" customWidth="1"/>
+    <col min="2301" max="2301" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="2302" max="2302" width="17.5" style="2" customWidth="1"/>
     <col min="2303" max="2308" width="16.5" style="2" customWidth="1"/>
     <col min="2309" max="2556" width="9" style="2"/>
-    <col min="2557" max="2557" width="21.83203125" style="2" customWidth="1"/>
+    <col min="2557" max="2557" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="2558" max="2558" width="17.5" style="2" customWidth="1"/>
     <col min="2559" max="2564" width="16.5" style="2" customWidth="1"/>
     <col min="2565" max="2812" width="9" style="2"/>
-    <col min="2813" max="2813" width="21.83203125" style="2" customWidth="1"/>
+    <col min="2813" max="2813" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="2814" max="2814" width="17.5" style="2" customWidth="1"/>
     <col min="2815" max="2820" width="16.5" style="2" customWidth="1"/>
     <col min="2821" max="3068" width="9" style="2"/>
-    <col min="3069" max="3069" width="21.83203125" style="2" customWidth="1"/>
+    <col min="3069" max="3069" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="3070" max="3070" width="17.5" style="2" customWidth="1"/>
     <col min="3071" max="3076" width="16.5" style="2" customWidth="1"/>
     <col min="3077" max="3324" width="9" style="2"/>
-    <col min="3325" max="3325" width="21.83203125" style="2" customWidth="1"/>
+    <col min="3325" max="3325" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="3326" max="3326" width="17.5" style="2" customWidth="1"/>
     <col min="3327" max="3332" width="16.5" style="2" customWidth="1"/>
     <col min="3333" max="3580" width="9" style="2"/>
-    <col min="3581" max="3581" width="21.83203125" style="2" customWidth="1"/>
+    <col min="3581" max="3581" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="3582" max="3582" width="17.5" style="2" customWidth="1"/>
     <col min="3583" max="3588" width="16.5" style="2" customWidth="1"/>
     <col min="3589" max="3836" width="9" style="2"/>
-    <col min="3837" max="3837" width="21.83203125" style="2" customWidth="1"/>
+    <col min="3837" max="3837" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="3838" max="3838" width="17.5" style="2" customWidth="1"/>
     <col min="3839" max="3844" width="16.5" style="2" customWidth="1"/>
     <col min="3845" max="4092" width="9" style="2"/>
-    <col min="4093" max="4093" width="21.83203125" style="2" customWidth="1"/>
+    <col min="4093" max="4093" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="4094" max="4094" width="17.5" style="2" customWidth="1"/>
     <col min="4095" max="4100" width="16.5" style="2" customWidth="1"/>
     <col min="4101" max="4348" width="9" style="2"/>
-    <col min="4349" max="4349" width="21.83203125" style="2" customWidth="1"/>
+    <col min="4349" max="4349" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="4350" max="4350" width="17.5" style="2" customWidth="1"/>
     <col min="4351" max="4356" width="16.5" style="2" customWidth="1"/>
     <col min="4357" max="4604" width="9" style="2"/>
-    <col min="4605" max="4605" width="21.83203125" style="2" customWidth="1"/>
+    <col min="4605" max="4605" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="4606" max="4606" width="17.5" style="2" customWidth="1"/>
     <col min="4607" max="4612" width="16.5" style="2" customWidth="1"/>
     <col min="4613" max="4860" width="9" style="2"/>
-    <col min="4861" max="4861" width="21.83203125" style="2" customWidth="1"/>
+    <col min="4861" max="4861" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="4862" max="4862" width="17.5" style="2" customWidth="1"/>
     <col min="4863" max="4868" width="16.5" style="2" customWidth="1"/>
     <col min="4869" max="5116" width="9" style="2"/>
-    <col min="5117" max="5117" width="21.83203125" style="2" customWidth="1"/>
+    <col min="5117" max="5117" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="5118" max="5118" width="17.5" style="2" customWidth="1"/>
     <col min="5119" max="5124" width="16.5" style="2" customWidth="1"/>
     <col min="5125" max="5372" width="9" style="2"/>
-    <col min="5373" max="5373" width="21.83203125" style="2" customWidth="1"/>
+    <col min="5373" max="5373" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="5374" max="5374" width="17.5" style="2" customWidth="1"/>
     <col min="5375" max="5380" width="16.5" style="2" customWidth="1"/>
     <col min="5381" max="5628" width="9" style="2"/>
-    <col min="5629" max="5629" width="21.83203125" style="2" customWidth="1"/>
+    <col min="5629" max="5629" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="5630" max="5630" width="17.5" style="2" customWidth="1"/>
     <col min="5631" max="5636" width="16.5" style="2" customWidth="1"/>
     <col min="5637" max="5884" width="9" style="2"/>
-    <col min="5885" max="5885" width="21.83203125" style="2" customWidth="1"/>
+    <col min="5885" max="5885" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="5886" max="5886" width="17.5" style="2" customWidth="1"/>
     <col min="5887" max="5892" width="16.5" style="2" customWidth="1"/>
     <col min="5893" max="6140" width="9" style="2"/>
-    <col min="6141" max="6141" width="21.83203125" style="2" customWidth="1"/>
+    <col min="6141" max="6141" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="6142" max="6142" width="17.5" style="2" customWidth="1"/>
     <col min="6143" max="6148" width="16.5" style="2" customWidth="1"/>
     <col min="6149" max="6396" width="9" style="2"/>
-    <col min="6397" max="6397" width="21.83203125" style="2" customWidth="1"/>
+    <col min="6397" max="6397" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="6398" max="6398" width="17.5" style="2" customWidth="1"/>
     <col min="6399" max="6404" width="16.5" style="2" customWidth="1"/>
     <col min="6405" max="6652" width="9" style="2"/>
-    <col min="6653" max="6653" width="21.83203125" style="2" customWidth="1"/>
+    <col min="6653" max="6653" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="6654" max="6654" width="17.5" style="2" customWidth="1"/>
     <col min="6655" max="6660" width="16.5" style="2" customWidth="1"/>
     <col min="6661" max="6908" width="9" style="2"/>
-    <col min="6909" max="6909" width="21.83203125" style="2" customWidth="1"/>
+    <col min="6909" max="6909" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="6910" max="6910" width="17.5" style="2" customWidth="1"/>
     <col min="6911" max="6916" width="16.5" style="2" customWidth="1"/>
     <col min="6917" max="7164" width="9" style="2"/>
-    <col min="7165" max="7165" width="21.83203125" style="2" customWidth="1"/>
+    <col min="7165" max="7165" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="7166" max="7166" width="17.5" style="2" customWidth="1"/>
     <col min="7167" max="7172" width="16.5" style="2" customWidth="1"/>
     <col min="7173" max="7420" width="9" style="2"/>
-    <col min="7421" max="7421" width="21.83203125" style="2" customWidth="1"/>
+    <col min="7421" max="7421" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="7422" max="7422" width="17.5" style="2" customWidth="1"/>
     <col min="7423" max="7428" width="16.5" style="2" customWidth="1"/>
     <col min="7429" max="7676" width="9" style="2"/>
-    <col min="7677" max="7677" width="21.83203125" style="2" customWidth="1"/>
+    <col min="7677" max="7677" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="7678" max="7678" width="17.5" style="2" customWidth="1"/>
     <col min="7679" max="7684" width="16.5" style="2" customWidth="1"/>
     <col min="7685" max="7932" width="9" style="2"/>
-    <col min="7933" max="7933" width="21.83203125" style="2" customWidth="1"/>
+    <col min="7933" max="7933" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="7934" max="7934" width="17.5" style="2" customWidth="1"/>
     <col min="7935" max="7940" width="16.5" style="2" customWidth="1"/>
     <col min="7941" max="8188" width="9" style="2"/>
-    <col min="8189" max="8189" width="21.83203125" style="2" customWidth="1"/>
+    <col min="8189" max="8189" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="8190" max="8190" width="17.5" style="2" customWidth="1"/>
     <col min="8191" max="8196" width="16.5" style="2" customWidth="1"/>
     <col min="8197" max="8444" width="9" style="2"/>
-    <col min="8445" max="8445" width="21.83203125" style="2" customWidth="1"/>
+    <col min="8445" max="8445" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="8446" max="8446" width="17.5" style="2" customWidth="1"/>
     <col min="8447" max="8452" width="16.5" style="2" customWidth="1"/>
     <col min="8453" max="8700" width="9" style="2"/>
-    <col min="8701" max="8701" width="21.83203125" style="2" customWidth="1"/>
+    <col min="8701" max="8701" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="8702" max="8702" width="17.5" style="2" customWidth="1"/>
     <col min="8703" max="8708" width="16.5" style="2" customWidth="1"/>
     <col min="8709" max="8956" width="9" style="2"/>
-    <col min="8957" max="8957" width="21.83203125" style="2" customWidth="1"/>
+    <col min="8957" max="8957" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="8958" max="8958" width="17.5" style="2" customWidth="1"/>
     <col min="8959" max="8964" width="16.5" style="2" customWidth="1"/>
     <col min="8965" max="9212" width="9" style="2"/>
-    <col min="9213" max="9213" width="21.83203125" style="2" customWidth="1"/>
+    <col min="9213" max="9213" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="9214" max="9214" width="17.5" style="2" customWidth="1"/>
     <col min="9215" max="9220" width="16.5" style="2" customWidth="1"/>
     <col min="9221" max="9468" width="9" style="2"/>
-    <col min="9469" max="9469" width="21.83203125" style="2" customWidth="1"/>
+    <col min="9469" max="9469" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="9470" max="9470" width="17.5" style="2" customWidth="1"/>
     <col min="9471" max="9476" width="16.5" style="2" customWidth="1"/>
     <col min="9477" max="9724" width="9" style="2"/>
-    <col min="9725" max="9725" width="21.83203125" style="2" customWidth="1"/>
+    <col min="9725" max="9725" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="9726" max="9726" width="17.5" style="2" customWidth="1"/>
     <col min="9727" max="9732" width="16.5" style="2" customWidth="1"/>
     <col min="9733" max="9980" width="9" style="2"/>
-    <col min="9981" max="9981" width="21.83203125" style="2" customWidth="1"/>
+    <col min="9981" max="9981" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="9982" max="9982" width="17.5" style="2" customWidth="1"/>
     <col min="9983" max="9988" width="16.5" style="2" customWidth="1"/>
     <col min="9989" max="10236" width="9" style="2"/>
-    <col min="10237" max="10237" width="21.83203125" style="2" customWidth="1"/>
+    <col min="10237" max="10237" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="10238" max="10238" width="17.5" style="2" customWidth="1"/>
     <col min="10239" max="10244" width="16.5" style="2" customWidth="1"/>
     <col min="10245" max="10492" width="9" style="2"/>
-    <col min="10493" max="10493" width="21.83203125" style="2" customWidth="1"/>
+    <col min="10493" max="10493" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="10494" max="10494" width="17.5" style="2" customWidth="1"/>
     <col min="10495" max="10500" width="16.5" style="2" customWidth="1"/>
     <col min="10501" max="10748" width="9" style="2"/>
-    <col min="10749" max="10749" width="21.83203125" style="2" customWidth="1"/>
+    <col min="10749" max="10749" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="10750" max="10750" width="17.5" style="2" customWidth="1"/>
     <col min="10751" max="10756" width="16.5" style="2" customWidth="1"/>
     <col min="10757" max="11004" width="9" style="2"/>
-    <col min="11005" max="11005" width="21.83203125" style="2" customWidth="1"/>
+    <col min="11005" max="11005" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="11006" max="11006" width="17.5" style="2" customWidth="1"/>
     <col min="11007" max="11012" width="16.5" style="2" customWidth="1"/>
     <col min="11013" max="11260" width="9" style="2"/>
-    <col min="11261" max="11261" width="21.83203125" style="2" customWidth="1"/>
+    <col min="11261" max="11261" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="11262" max="11262" width="17.5" style="2" customWidth="1"/>
     <col min="11263" max="11268" width="16.5" style="2" customWidth="1"/>
     <col min="11269" max="11516" width="9" style="2"/>
-    <col min="11517" max="11517" width="21.83203125" style="2" customWidth="1"/>
+    <col min="11517" max="11517" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="11518" max="11518" width="17.5" style="2" customWidth="1"/>
     <col min="11519" max="11524" width="16.5" style="2" customWidth="1"/>
     <col min="11525" max="11772" width="9" style="2"/>
-    <col min="11773" max="11773" width="21.83203125" style="2" customWidth="1"/>
+    <col min="11773" max="11773" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="11774" max="11774" width="17.5" style="2" customWidth="1"/>
     <col min="11775" max="11780" width="16.5" style="2" customWidth="1"/>
     <col min="11781" max="12028" width="9" style="2"/>
-    <col min="12029" max="12029" width="21.83203125" style="2" customWidth="1"/>
+    <col min="12029" max="12029" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="12030" max="12030" width="17.5" style="2" customWidth="1"/>
     <col min="12031" max="12036" width="16.5" style="2" customWidth="1"/>
     <col min="12037" max="12284" width="9" style="2"/>
-    <col min="12285" max="12285" width="21.83203125" style="2" customWidth="1"/>
+    <col min="12285" max="12285" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="12286" max="12286" width="17.5" style="2" customWidth="1"/>
     <col min="12287" max="12292" width="16.5" style="2" customWidth="1"/>
     <col min="12293" max="12540" width="9" style="2"/>
-    <col min="12541" max="12541" width="21.83203125" style="2" customWidth="1"/>
+    <col min="12541" max="12541" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="12542" max="12542" width="17.5" style="2" customWidth="1"/>
     <col min="12543" max="12548" width="16.5" style="2" customWidth="1"/>
     <col min="12549" max="12796" width="9" style="2"/>
-    <col min="12797" max="12797" width="21.83203125" style="2" customWidth="1"/>
+    <col min="12797" max="12797" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="12798" max="12798" width="17.5" style="2" customWidth="1"/>
     <col min="12799" max="12804" width="16.5" style="2" customWidth="1"/>
     <col min="12805" max="13052" width="9" style="2"/>
-    <col min="13053" max="13053" width="21.83203125" style="2" customWidth="1"/>
+    <col min="13053" max="13053" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="13054" max="13054" width="17.5" style="2" customWidth="1"/>
     <col min="13055" max="13060" width="16.5" style="2" customWidth="1"/>
     <col min="13061" max="13308" width="9" style="2"/>
-    <col min="13309" max="13309" width="21.83203125" style="2" customWidth="1"/>
+    <col min="13309" max="13309" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="13310" max="13310" width="17.5" style="2" customWidth="1"/>
     <col min="13311" max="13316" width="16.5" style="2" customWidth="1"/>
     <col min="13317" max="13564" width="9" style="2"/>
-    <col min="13565" max="13565" width="21.83203125" style="2" customWidth="1"/>
+    <col min="13565" max="13565" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="13566" max="13566" width="17.5" style="2" customWidth="1"/>
     <col min="13567" max="13572" width="16.5" style="2" customWidth="1"/>
     <col min="13573" max="13820" width="9" style="2"/>
-    <col min="13821" max="13821" width="21.83203125" style="2" customWidth="1"/>
+    <col min="13821" max="13821" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="13822" max="13822" width="17.5" style="2" customWidth="1"/>
     <col min="13823" max="13828" width="16.5" style="2" customWidth="1"/>
     <col min="13829" max="14076" width="9" style="2"/>
-    <col min="14077" max="14077" width="21.83203125" style="2" customWidth="1"/>
+    <col min="14077" max="14077" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="14078" max="14078" width="17.5" style="2" customWidth="1"/>
     <col min="14079" max="14084" width="16.5" style="2" customWidth="1"/>
     <col min="14085" max="14332" width="9" style="2"/>
-    <col min="14333" max="14333" width="21.83203125" style="2" customWidth="1"/>
+    <col min="14333" max="14333" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="14334" max="14334" width="17.5" style="2" customWidth="1"/>
     <col min="14335" max="14340" width="16.5" style="2" customWidth="1"/>
     <col min="14341" max="14588" width="9" style="2"/>
-    <col min="14589" max="14589" width="21.83203125" style="2" customWidth="1"/>
+    <col min="14589" max="14589" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="14590" max="14590" width="17.5" style="2" customWidth="1"/>
     <col min="14591" max="14596" width="16.5" style="2" customWidth="1"/>
     <col min="14597" max="14844" width="9" style="2"/>
-    <col min="14845" max="14845" width="21.83203125" style="2" customWidth="1"/>
+    <col min="14845" max="14845" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="14846" max="14846" width="17.5" style="2" customWidth="1"/>
     <col min="14847" max="14852" width="16.5" style="2" customWidth="1"/>
     <col min="14853" max="15100" width="9" style="2"/>
-    <col min="15101" max="15101" width="21.83203125" style="2" customWidth="1"/>
+    <col min="15101" max="15101" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="15102" max="15102" width="17.5" style="2" customWidth="1"/>
     <col min="15103" max="15108" width="16.5" style="2" customWidth="1"/>
     <col min="15109" max="15356" width="9" style="2"/>
-    <col min="15357" max="15357" width="21.83203125" style="2" customWidth="1"/>
+    <col min="15357" max="15357" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="15358" max="15358" width="17.5" style="2" customWidth="1"/>
     <col min="15359" max="15364" width="16.5" style="2" customWidth="1"/>
     <col min="15365" max="15612" width="9" style="2"/>
-    <col min="15613" max="15613" width="21.83203125" style="2" customWidth="1"/>
+    <col min="15613" max="15613" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="15614" max="15614" width="17.5" style="2" customWidth="1"/>
     <col min="15615" max="15620" width="16.5" style="2" customWidth="1"/>
     <col min="15621" max="15868" width="9" style="2"/>
-    <col min="15869" max="15869" width="21.83203125" style="2" customWidth="1"/>
+    <col min="15869" max="15869" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="15870" max="15870" width="17.5" style="2" customWidth="1"/>
     <col min="15871" max="15876" width="16.5" style="2" customWidth="1"/>
     <col min="15877" max="16124" width="9" style="2"/>
-    <col min="16125" max="16125" width="21.83203125" style="2" customWidth="1"/>
+    <col min="16125" max="16125" width="21.8303571428571" style="2" customWidth="1"/>
     <col min="16126" max="16126" width="17.5" style="2" customWidth="1"/>
     <col min="16127" max="16132" width="16.5" style="2" customWidth="1"/>
     <col min="16133" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39.5" customHeight="1">
-      <c r="A1" s="50" t="s">
+    <row r="1" ht="39.5" customHeight="1" spans="1:11">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="2" ht="32" customHeight="1" spans="1:11">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-    </row>
-    <row r="2" spans="1:11" ht="32" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="43" customHeight="1">
-      <c r="A3" s="52" t="s">
+    <row r="3" ht="43" customHeight="1" spans="1:11">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A4" s="46">
+    <row r="4" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A4" s="10">
         <v>44013</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="12" t="s">
+    <row r="5" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A6" s="46">
+    <row r="6" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A6" s="10">
         <v>44014</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="16" t="s">
+    <row r="7" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A7" s="10"/>
+      <c r="B7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A8" s="46">
+    <row r="8" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A8" s="10">
         <v>44015</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A9" s="46"/>
-      <c r="B9" s="12" t="s">
+    <row r="9" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A10" s="47">
+    <row r="10" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A10" s="15">
         <v>44016</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A11" s="47"/>
-      <c r="B11" s="16" t="s">
+    <row r="11" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A11" s="15"/>
+      <c r="B11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A12" s="47">
+    <row r="12" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A12" s="15">
         <v>44017</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A13" s="47"/>
-      <c r="B13" s="12" t="s">
+    <row r="13" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A13" s="15"/>
+      <c r="B13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A14" s="46">
+    <row r="14" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A14" s="10">
         <v>44018</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A15" s="46"/>
-      <c r="B15" s="16" t="s">
+    <row r="15" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A15" s="10"/>
+      <c r="B15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="32" t="s">
+      <c r="K15" s="36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18" customHeight="1">
-      <c r="A16" s="46">
+    <row r="16" ht="18" customHeight="1" spans="1:11">
+      <c r="A16" s="10">
         <v>44019</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="18" customHeight="1">
-      <c r="A17" s="46"/>
-      <c r="B17" s="12" t="s">
+    <row r="17" ht="18" customHeight="1" spans="1:11">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="K17" s="37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A18" s="46">
+    <row r="18" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A18" s="10">
         <v>44020</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="34" t="s">
+      <c r="K18" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A19" s="46"/>
-      <c r="B19" s="16" t="s">
+    <row r="19" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A19" s="10"/>
+      <c r="B19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="32" t="s">
+      <c r="K19" s="36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="17.5" customHeight="1">
-      <c r="A20" s="46">
+    <row r="20" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A20" s="10">
         <v>44021</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" ht="17.5" customHeight="1">
-      <c r="A21" s="46"/>
-      <c r="B21" s="20" t="s">
+    <row r="21" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A21" s="10"/>
+      <c r="B21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="31" t="s">
+      <c r="K21" s="35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A22" s="46">
+    <row r="22" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A22" s="10">
         <v>44022</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K22" s="32" t="s">
+      <c r="K22" s="36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A23" s="46"/>
-      <c r="B23" s="16" t="s">
+    <row r="23" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A23" s="10"/>
+      <c r="B23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="32" t="s">
+      <c r="K23" s="36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A24" s="47">
+    <row r="24" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A24" s="15">
         <v>44023</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K24" s="31" t="s">
+      <c r="K24" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A25" s="47"/>
-      <c r="B25" s="12" t="s">
+    <row r="25" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A25" s="15"/>
+      <c r="B25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="33" t="s">
+      <c r="K25" s="37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A26" s="47">
+    <row r="26" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A26" s="15">
         <v>44024</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J26" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K26" s="34" t="s">
+      <c r="K26" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A27" s="47"/>
-      <c r="B27" s="16" t="s">
+    <row r="27" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A27" s="15"/>
+      <c r="B27" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J27" s="17" t="s">
+      <c r="J27" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="K27" s="32" t="s">
+      <c r="K27" s="36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A28" s="46">
+    <row r="28" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A28" s="10">
         <v>44025</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="31" t="s">
+      <c r="K28" s="35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A29" s="46"/>
-      <c r="B29" s="12" t="s">
+    <row r="29" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K29" s="31" t="s">
+      <c r="K29" s="35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A30" s="46">
+    <row r="30" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A30" s="10">
         <v>44026</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="I30" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="J30" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K30" s="32" t="s">
+      <c r="K30" s="36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A31" s="46"/>
-      <c r="B31" s="16" t="s">
+    <row r="31" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A31" s="10"/>
+      <c r="B31" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="I31" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="17" t="s">
+      <c r="J31" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="32" t="s">
+      <c r="K31" s="36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A32" s="46">
+    <row r="32" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A32" s="10">
         <v>44027</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J32" s="13" t="s">
+      <c r="J32" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K32" s="31" t="s">
+      <c r="K32" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A33" s="46"/>
-      <c r="B33" s="12" t="s">
+    <row r="33" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="J33" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K33" s="33" t="s">
+      <c r="K33" s="37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A34" s="46">
+    <row r="34" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A34" s="10">
         <v>44028</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="17" t="s">
+      <c r="I34" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="17" t="s">
+      <c r="J34" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K34" s="34" t="s">
+      <c r="K34" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A35" s="46"/>
-      <c r="B35" s="16" t="s">
+    <row r="35" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A35" s="10"/>
+      <c r="B35" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I35" s="17" t="s">
+      <c r="I35" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="J35" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="K35" s="32" t="s">
+      <c r="K35" s="36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A36" s="46">
+    <row r="36" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A36" s="10">
         <v>44029</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="I36" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J36" s="13" t="s">
+      <c r="J36" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="31" t="s">
+      <c r="K36" s="35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A37" s="46"/>
-      <c r="B37" s="12" t="s">
+    <row r="37" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H37" s="22" t="s">
+      <c r="H37" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="I37" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="J37" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K37" s="31" t="s">
+      <c r="K37" s="35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A38" s="47">
+    <row r="38" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A38" s="15">
         <v>44030</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="23" t="s">
+      <c r="H38" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="21" t="s">
+      <c r="I38" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J38" s="17" t="s">
+      <c r="J38" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K38" s="32" t="s">
+      <c r="K38" s="36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A39" s="47"/>
-      <c r="B39" s="16" t="s">
+    <row r="39" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A39" s="15"/>
+      <c r="B39" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G39" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="23" t="s">
+      <c r="H39" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I39" s="21" t="s">
+      <c r="I39" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J39" s="17" t="s">
+      <c r="J39" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="32" t="s">
+      <c r="K39" s="36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A40" s="47">
+    <row r="40" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A40" s="15">
         <v>44031</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="13" t="s">
+      <c r="I40" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J40" s="13" t="s">
+      <c r="J40" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K40" s="31" t="s">
+      <c r="K40" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A41" s="47"/>
-      <c r="B41" s="12" t="s">
+    <row r="41" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A41" s="15"/>
+      <c r="B41" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H41" s="22" t="s">
+      <c r="H41" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="I41" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J41" s="13" t="s">
+      <c r="J41" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K41" s="33" t="s">
+      <c r="K41" s="37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A42" s="46">
+    <row r="42" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A42" s="10">
         <v>44032</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G42" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H42" s="23" t="s">
+      <c r="H42" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I42" s="17" t="s">
+      <c r="I42" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J42" s="17" t="s">
+      <c r="J42" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K42" s="34" t="s">
+      <c r="K42" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A43" s="46"/>
-      <c r="B43" s="16" t="s">
+    <row r="43" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A43" s="10"/>
+      <c r="B43" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G43" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H43" s="23" t="s">
+      <c r="H43" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I43" s="17" t="s">
+      <c r="I43" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J43" s="17" t="s">
+      <c r="J43" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="K43" s="32" t="s">
+      <c r="K43" s="36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A44" s="46">
+    <row r="44" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A44" s="10">
         <v>44033</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="H44" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I44" s="13" t="s">
+      <c r="I44" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J44" s="13" t="s">
+      <c r="J44" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K44" s="31" t="s">
+      <c r="K44" s="35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A45" s="46"/>
-      <c r="B45" s="12" t="s">
+    <row r="45" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H45" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I45" s="13" t="s">
+      <c r="I45" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J45" s="13" t="s">
+      <c r="J45" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="31" t="s">
+      <c r="K45" s="35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A46" s="46">
+    <row r="46" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A46" s="10">
         <v>44034</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E46" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G46" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="H46" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I46" s="21" t="s">
+      <c r="I46" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J46" s="17" t="s">
+      <c r="J46" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K46" s="32" t="s">
+      <c r="K46" s="36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A47" s="46"/>
-      <c r="B47" s="16" t="s">
+    <row r="47" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A47" s="10"/>
+      <c r="B47" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="G47" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H47" s="23" t="s">
+      <c r="H47" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I47" s="21" t="s">
+      <c r="I47" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J47" s="17" t="s">
+      <c r="J47" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K47" s="32" t="s">
+      <c r="K47" s="36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A48" s="46">
+    <row r="48" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A48" s="10">
         <v>44035</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="H48" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I48" s="13" t="s">
+      <c r="I48" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J48" s="13" t="s">
+      <c r="J48" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K48" s="31" t="s">
+      <c r="K48" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A49" s="46"/>
-      <c r="B49" s="12" t="s">
+    <row r="49" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A49" s="10"/>
+      <c r="B49" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F49" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H49" s="22" t="s">
+      <c r="H49" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I49" s="13" t="s">
+      <c r="I49" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J49" s="13" t="s">
+      <c r="J49" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K49" s="33" t="s">
+      <c r="K49" s="37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A50" s="46">
+    <row r="50" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A50" s="10">
         <v>44036</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F50" s="27" t="s">
+      <c r="F50" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H50" s="23" t="s">
+      <c r="H50" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I50" s="17" t="s">
+      <c r="I50" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J50" s="17" t="s">
+      <c r="J50" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K50" s="34" t="s">
+      <c r="K50" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A51" s="46"/>
-      <c r="B51" s="16" t="s">
+    <row r="51" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A51" s="10"/>
+      <c r="B51" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F51" s="28" t="s">
+      <c r="F51" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="G51" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="23" t="s">
+      <c r="H51" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I51" s="17" t="s">
+      <c r="I51" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J51" s="17" t="s">
+      <c r="J51" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="K51" s="32" t="s">
+      <c r="K51" s="36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A52" s="47">
+    <row r="52" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A52" s="15">
         <v>44037</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H52" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I52" s="13" t="s">
+      <c r="I52" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J52" s="13" t="s">
+      <c r="J52" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K52" s="31" t="s">
+      <c r="K52" s="35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A53" s="47"/>
-      <c r="B53" s="12" t="s">
+    <row r="53" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A53" s="15"/>
+      <c r="B53" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G53" s="13" t="s">
+      <c r="G53" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H53" s="22" t="s">
+      <c r="H53" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I53" s="13" t="s">
+      <c r="I53" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J53" s="13" t="s">
+      <c r="J53" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K53" s="31" t="s">
+      <c r="K53" s="35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A54" s="47">
+    <row r="54" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A54" s="15">
         <v>44038</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E54" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F54" s="25" t="s">
+      <c r="F54" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G54" s="17" t="s">
+      <c r="G54" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H54" s="23" t="s">
+      <c r="H54" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I54" s="21" t="s">
+      <c r="I54" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J54" s="17" t="s">
+      <c r="J54" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K54" s="32" t="s">
+      <c r="K54" s="36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A55" s="47"/>
-      <c r="B55" s="16" t="s">
+    <row r="55" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A55" s="15"/>
+      <c r="B55" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E55" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G55" s="17" t="s">
+      <c r="G55" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H55" s="23" t="s">
+      <c r="H55" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I55" s="21" t="s">
+      <c r="I55" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J55" s="17" t="s">
+      <c r="J55" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K55" s="32" t="s">
+      <c r="K55" s="36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A56" s="46">
+    <row r="56" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A56" s="10">
         <v>44039</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="F56" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H56" s="13" t="s">
+      <c r="H56" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I56" s="13" t="s">
+      <c r="I56" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J56" s="13" t="s">
+      <c r="J56" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K56" s="31" t="s">
+      <c r="K56" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A57" s="46"/>
-      <c r="B57" s="12" t="s">
+    <row r="57" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A57" s="10"/>
+      <c r="B57" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="G57" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H57" s="22" t="s">
+      <c r="H57" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I57" s="13" t="s">
+      <c r="I57" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J57" s="13" t="s">
+      <c r="J57" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K57" s="33" t="s">
+      <c r="K57" s="37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A58" s="46">
+    <row r="58" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A58" s="10">
         <v>44040</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E58" s="17" t="s">
+      <c r="E58" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F58" s="27" t="s">
+      <c r="F58" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G58" s="17" t="s">
+      <c r="G58" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H58" s="23" t="s">
+      <c r="H58" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I58" s="17" t="s">
+      <c r="I58" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J58" s="17" t="s">
+      <c r="J58" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K58" s="34" t="s">
+      <c r="K58" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A59" s="46"/>
-      <c r="B59" s="16" t="s">
+    <row r="59" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A59" s="10"/>
+      <c r="B59" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F59" s="28" t="s">
+      <c r="F59" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G59" s="17" t="s">
+      <c r="G59" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H59" s="23" t="s">
+      <c r="H59" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I59" s="17" t="s">
+      <c r="I59" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J59" s="17" t="s">
+      <c r="J59" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="K59" s="32" t="s">
+      <c r="K59" s="36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A60" s="46">
+    <row r="60" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A60" s="10">
         <v>44041</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="E60" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F60" s="14" t="s">
+      <c r="F60" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G60" s="13" t="s">
+      <c r="G60" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H60" s="13" t="s">
+      <c r="H60" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I60" s="13" t="s">
+      <c r="I60" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J60" s="13" t="s">
+      <c r="J60" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K60" s="31" t="s">
+      <c r="K60" s="35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A61" s="46"/>
-      <c r="B61" s="12" t="s">
+    <row r="61" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A61" s="10"/>
+      <c r="B61" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F61" s="14" t="s">
+      <c r="F61" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G61" s="13" t="s">
+      <c r="G61" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H61" s="22" t="s">
+      <c r="H61" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I61" s="13" t="s">
+      <c r="I61" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J61" s="13" t="s">
+      <c r="J61" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K61" s="31" t="s">
+      <c r="K61" s="35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A62" s="46">
+    <row r="62" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A62" s="10">
         <v>44042</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="23" t="s">
+      <c r="D62" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="E62" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F62" s="25" t="s">
+      <c r="F62" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G62" s="17" t="s">
+      <c r="G62" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H62" s="23" t="s">
+      <c r="H62" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I62" s="21" t="s">
+      <c r="I62" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J62" s="17" t="s">
+      <c r="J62" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K62" s="32" t="s">
+      <c r="K62" s="36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A63" s="46"/>
-      <c r="B63" s="16" t="s">
+    <row r="63" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A63" s="10"/>
+      <c r="B63" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D63" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E63" s="21" t="s">
+      <c r="E63" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F63" s="24" t="s">
+      <c r="F63" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G63" s="17" t="s">
+      <c r="G63" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H63" s="23" t="s">
+      <c r="H63" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I63" s="21" t="s">
+      <c r="I63" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J63" s="17" t="s">
+      <c r="J63" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K63" s="32" t="s">
+      <c r="K63" s="36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A64" s="46">
+    <row r="64" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A64" s="10">
         <v>44043</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E64" s="13" t="s">
+      <c r="E64" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F64" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G64" s="13" t="s">
+      <c r="G64" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H64" s="13" t="s">
+      <c r="H64" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I64" s="13" t="s">
+      <c r="I64" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J64" s="13" t="s">
+      <c r="J64" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K64" s="31" t="s">
+      <c r="K64" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="17.5" customHeight="1">
-      <c r="A65" s="46"/>
-      <c r="B65" s="12" t="s">
+    <row r="65" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A65" s="10"/>
+      <c r="B65" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="E65" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F65" s="15" t="s">
+      <c r="F65" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G65" s="13" t="s">
+      <c r="G65" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H65" s="22" t="s">
+      <c r="H65" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I65" s="13" t="s">
+      <c r="I65" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J65" s="13" t="s">
+      <c r="J65" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K65" s="33" t="s">
+      <c r="K65" s="37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="1" customFormat="1">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="35"/>
-    </row>
-    <row r="67" spans="1:11" s="1" customFormat="1" ht="17">
-      <c r="A67" s="49" t="s">
+    <row r="66" s="1" customFormat="1" ht="17.6" spans="1:11">
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="39"/>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="20.4" spans="1:11">
+      <c r="A67" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="48" t="s">
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="48" t="s">
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="J67" s="48"/>
-      <c r="K67" s="48"/>
-    </row>
-    <row r="68" spans="1:11" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A68" s="38" t="s">
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+    </row>
+    <row r="68" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
+      <c r="A68" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D68" s="39"/>
-      <c r="E68" s="38" t="s">
+      <c r="D68" s="43"/>
+      <c r="E68" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="F68" s="38" t="s">
+      <c r="F68" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="G68" s="38" t="s">
+      <c r="G68" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H68" s="36"/>
-      <c r="I68" s="38" t="s">
+      <c r="H68" s="40"/>
+      <c r="I68" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="J68" s="44" t="s">
+      <c r="J68" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="K68" s="44" t="s">
+      <c r="K68" s="50" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A69" s="40" t="s">
+    <row r="69" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
+      <c r="A69" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="45">
+        <v>18676387686</v>
+      </c>
+      <c r="D69" s="43"/>
+      <c r="E69" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="41">
-        <v>18676387686</v>
-      </c>
-      <c r="D69" s="39"/>
-      <c r="E69" s="40" t="s">
+      <c r="F69" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" s="46">
+        <v>17602055814</v>
+      </c>
+      <c r="H69" s="48"/>
+      <c r="I69" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J69" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="K69" s="40">
+        <v>13420018232</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
+      <c r="A70" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" s="45">
+        <v>13260651055</v>
+      </c>
+      <c r="D70" s="43"/>
+      <c r="E70" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G70" s="46">
+        <v>15179992245</v>
+      </c>
+      <c r="H70" s="48"/>
+      <c r="I70" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J70" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="K70" s="45">
+        <v>15302779603</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
+      <c r="A71" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="45">
+        <v>18374277189</v>
+      </c>
+      <c r="D71" s="43"/>
+      <c r="E71" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" s="46">
+        <v>15122212535</v>
+      </c>
+      <c r="H71" s="40"/>
+      <c r="I71" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J71" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="K71" s="45">
+        <v>18124613787</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
+      <c r="A72" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="45">
+        <v>13530208179</v>
+      </c>
+      <c r="D72" s="43"/>
+      <c r="E72" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="46">
+        <v>15870627360</v>
+      </c>
+      <c r="H72" s="40"/>
+      <c r="I72" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J72" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="K72" s="45">
+        <v>18177404095</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
+      <c r="A73" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="45">
+        <v>15718223736</v>
+      </c>
+      <c r="D73" s="43"/>
+      <c r="E73" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G73" s="46">
+        <v>18587212294</v>
+      </c>
+      <c r="H73" s="49"/>
+      <c r="I73" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J73" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K73" s="45">
+        <v>18874651879</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="17.6" spans="4:11">
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J74" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="K74" s="45">
+        <v>18310074303</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="17.6" spans="4:11">
+      <c r="D75" s="43"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="51"/>
+    </row>
+    <row r="76" s="1" customFormat="1" ht="20.4" spans="1:11">
+      <c r="A76" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+    </row>
+    <row r="77" s="1" customFormat="1" ht="17" customHeight="1" spans="1:11">
+      <c r="A77" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77" s="43"/>
+      <c r="E77" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F77" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G77" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H77" s="40"/>
+      <c r="I77" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="J77" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K77" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" ht="17" customHeight="1" spans="1:11">
+      <c r="A78" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="45">
+        <v>13777126531</v>
+      </c>
+      <c r="D78" s="43"/>
+      <c r="E78" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="G78" s="45">
+        <v>15875956239</v>
+      </c>
+      <c r="H78" s="40"/>
+      <c r="I78" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="K78" s="45">
+        <v>15814493346</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" ht="17" customHeight="1" spans="1:11">
+      <c r="A79" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="45">
+        <v>19820223626</v>
+      </c>
+      <c r="D79" s="43"/>
+      <c r="E79" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="G79" s="45">
+        <v>13417399783</v>
+      </c>
+      <c r="H79" s="40"/>
+      <c r="I79" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="J79" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="K79" s="45">
+        <v>13699885905</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" ht="17" customHeight="1" spans="1:11">
+      <c r="A80" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="45">
+        <v>15177756699</v>
+      </c>
+      <c r="D80" s="43"/>
+      <c r="E80" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="G80" s="45">
+        <v>15217065094</v>
+      </c>
+      <c r="H80" s="40"/>
+      <c r="I80" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="K80" s="45">
+        <v>17349721510</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" ht="17" customHeight="1" spans="1:11">
+      <c r="A81" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="45">
+        <v>13554752539</v>
+      </c>
+      <c r="D81" s="43"/>
+      <c r="E81" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="G81" s="45">
+        <v>18779635799</v>
+      </c>
+      <c r="H81" s="40"/>
+      <c r="I81" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="J81" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="K81" s="45">
+        <v>18813924005</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" ht="17" customHeight="1" spans="1:11">
+      <c r="A82" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82" s="45">
+        <v>18337631878</v>
+      </c>
+      <c r="D82" s="43"/>
+      <c r="E82" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G82" s="45">
+        <v>18829291215</v>
+      </c>
+      <c r="H82" s="40"/>
+      <c r="I82" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="J82" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="K82" s="45">
+        <v>13620902901</v>
+      </c>
+    </row>
+    <row r="83" s="1" customFormat="1" ht="17" customHeight="1" spans="1:11">
+      <c r="A83" s="44"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G83" s="45">
+        <v>13192262350</v>
+      </c>
+      <c r="H83" s="40"/>
+      <c r="I83" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="J83" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K83" s="45">
+        <v>13127868673</v>
+      </c>
+    </row>
+    <row r="84" s="1" customFormat="1" ht="17" customHeight="1" spans="4:10">
+      <c r="D84" s="43"/>
+      <c r="E84" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84" s="45">
+        <v>15282771862</v>
+      </c>
+      <c r="H84" s="40"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="43"/>
+    </row>
+    <row r="85" s="1" customFormat="1" ht="15.5" customHeight="1" spans="1:10">
+      <c r="A85" s="44"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="45"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="45"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="43"/>
+    </row>
+    <row r="86" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:11">
+      <c r="A86" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="45"/>
+      <c r="K86" s="45"/>
+    </row>
+    <row r="87" s="1" customFormat="1" ht="17.6" spans="1:11">
+      <c r="A87" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" s="43"/>
+      <c r="E87" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F87" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G87" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H87" s="40"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="45"/>
+      <c r="K87" s="45"/>
+    </row>
+    <row r="88" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
+      <c r="A88" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" s="45">
+        <v>15838112352</v>
+      </c>
+      <c r="D88" s="43"/>
+      <c r="E88" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F69" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" s="42">
-        <v>17602055814</v>
-      </c>
-      <c r="H69" s="37"/>
-      <c r="I69" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="J69" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="K69" s="36">
-        <v>13420018232</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A70" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C70" s="41">
-        <v>13260651055</v>
-      </c>
-      <c r="D70" s="39"/>
-      <c r="E70" s="40" t="s">
+      <c r="F88" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="G88" s="40">
+        <v>16620143375</v>
+      </c>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="39"/>
+    </row>
+    <row r="89" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
+      <c r="A89" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" s="45">
+        <v>18002583762</v>
+      </c>
+      <c r="D89" s="43"/>
+      <c r="E89" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F70" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G70" s="42">
-        <v>15179992245</v>
-      </c>
-      <c r="H70" s="37"/>
-      <c r="I70" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="J70" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="K70" s="41">
-        <v>15302779603</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A71" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" s="41">
-        <v>18374277189</v>
-      </c>
-      <c r="D71" s="39"/>
-      <c r="E71" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="G71" s="42">
-        <v>15122212535</v>
-      </c>
-      <c r="H71" s="36"/>
-      <c r="I71" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="J71" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="K71" s="41">
-        <v>18124613787</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A72" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C72" s="41">
-        <v>13530208179</v>
-      </c>
-      <c r="D72" s="39"/>
-      <c r="E72" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" s="42">
-        <v>15870627360</v>
-      </c>
-      <c r="H72" s="36"/>
-      <c r="I72" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="J72" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="K72" s="41">
-        <v>18177404095</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A73" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" s="41">
-        <v>15718223736</v>
-      </c>
-      <c r="D73" s="39"/>
-      <c r="E73" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="G73" s="42">
-        <v>18587212294</v>
-      </c>
-      <c r="H73" s="43"/>
-      <c r="I73" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="J73" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="K73" s="41">
-        <v>18874651879</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="1" customFormat="1">
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="J74" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K74" s="41">
-        <v>18310074303</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="1" customFormat="1">
-      <c r="D75" s="39"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="45"/>
-    </row>
-    <row r="76" spans="1:11" s="1" customFormat="1" ht="17">
-      <c r="A76" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="F76" s="48"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="J76" s="48"/>
-      <c r="K76" s="48"/>
-    </row>
-    <row r="77" spans="1:11" s="1" customFormat="1" ht="17" customHeight="1">
-      <c r="A77" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B77" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C77" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D77" s="39"/>
-      <c r="E77" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F77" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="G77" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H77" s="36"/>
-      <c r="I77" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="J77" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="K77" s="38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="1" customFormat="1" ht="17" customHeight="1">
-      <c r="A78" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="41">
-        <v>13777126531</v>
-      </c>
-      <c r="D78" s="39"/>
-      <c r="E78" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="F78" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="G78" s="41">
-        <v>15875956239</v>
-      </c>
-      <c r="H78" s="36"/>
-      <c r="I78" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="J78" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="K78" s="41">
-        <v>15814493346</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="1" customFormat="1" ht="17" customHeight="1">
-      <c r="A79" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C79" s="41">
-        <v>19820223626</v>
-      </c>
-      <c r="D79" s="39"/>
-      <c r="E79" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="F79" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="G79" s="41">
-        <v>13417399783</v>
-      </c>
-      <c r="H79" s="36"/>
-      <c r="I79" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="J79" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="K79" s="41">
-        <v>13699885905</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" s="1" customFormat="1" ht="17" customHeight="1">
-      <c r="A80" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B80" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C80" s="41">
-        <v>15177756699</v>
-      </c>
-      <c r="D80" s="39"/>
-      <c r="E80" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="F80" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G80" s="41">
-        <v>15217065094</v>
-      </c>
-      <c r="H80" s="36"/>
-      <c r="I80" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="J80" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="K80" s="41">
-        <v>17349721510</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="1" customFormat="1" ht="17" customHeight="1">
-      <c r="A81" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B81" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C81" s="41">
-        <v>13554752539</v>
-      </c>
-      <c r="D81" s="39"/>
-      <c r="E81" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="F81" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G81" s="41">
-        <v>18779635799</v>
-      </c>
-      <c r="H81" s="36"/>
-      <c r="I81" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="J81" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="K81" s="41">
-        <v>18813924005</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="1" customFormat="1" ht="17" customHeight="1">
-      <c r="A82" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B82" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C82" s="41">
-        <v>18337631878</v>
-      </c>
-      <c r="D82" s="39"/>
-      <c r="E82" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="F82" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="G82" s="41">
-        <v>18829291215</v>
-      </c>
-      <c r="H82" s="36"/>
-      <c r="I82" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="J82" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="K82" s="41">
-        <v>13620902901</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="1" customFormat="1" ht="17" customHeight="1">
-      <c r="A83" s="40"/>
-      <c r="B83" s="42"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="F83" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="G83" s="41">
-        <v>13192262350</v>
-      </c>
-      <c r="H83" s="36"/>
-      <c r="I83" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="J83" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="K83" s="41">
-        <v>13127868673</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="1" customFormat="1" ht="17" customHeight="1">
-      <c r="D84" s="39"/>
-      <c r="E84" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="F84" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" s="41">
-        <v>15282771862</v>
-      </c>
-      <c r="H84" s="36"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-    </row>
-    <row r="85" spans="1:11" s="1" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A85" s="40"/>
-      <c r="B85" s="42"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="39"/>
-    </row>
-    <row r="86" spans="1:11" s="1" customFormat="1" ht="17.5" customHeight="1">
-      <c r="A86" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="41"/>
-      <c r="J86" s="41"/>
-      <c r="K86" s="41"/>
-    </row>
-    <row r="87" spans="1:11" s="1" customFormat="1">
-      <c r="A87" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B87" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C87" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D87" s="39"/>
-      <c r="E87" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F87" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="G87" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H87" s="36"/>
-      <c r="I87" s="41"/>
-      <c r="J87" s="41"/>
-      <c r="K87" s="41"/>
-    </row>
-    <row r="88" spans="1:11" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A88" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B88" s="41" t="s">
+      <c r="F89" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C88" s="41">
-        <v>15838112352</v>
-      </c>
-      <c r="D88" s="39"/>
-      <c r="E88" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="F88" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="G88" s="36">
-        <v>16620143375</v>
-      </c>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="35"/>
-    </row>
-    <row r="89" spans="1:11" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A89" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B89" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="C89" s="41">
-        <v>18002583762</v>
-      </c>
-      <c r="D89" s="39"/>
-      <c r="E89" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="F89" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="G89" s="36">
+      <c r="G89" s="40">
         <v>18094170961</v>
       </c>
-      <c r="H89" s="36"/>
-      <c r="I89" s="48"/>
-      <c r="J89" s="48"/>
-      <c r="K89" s="48"/>
-    </row>
-    <row r="90" spans="1:11" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A90" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B90" s="41" t="s">
+      <c r="H89" s="40"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="47"/>
+    </row>
+    <row r="90" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
+      <c r="A90" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C90" s="41">
+      <c r="C90" s="45">
         <v>17680312454</v>
       </c>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="39"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="38"/>
-    </row>
-    <row r="91" spans="1:11" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A91" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B91" s="41" t="s">
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
+      <c r="K90" s="42"/>
+    </row>
+    <row r="91" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
+      <c r="A91" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C91" s="41">
+      <c r="C91" s="45">
         <v>18968931517</v>
       </c>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="41"/>
-      <c r="K91" s="41"/>
-    </row>
-    <row r="92" spans="1:11" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A92" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B92" s="41" t="s">
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="40"/>
+      <c r="J91" s="45"/>
+      <c r="K91" s="45"/>
+    </row>
+    <row r="92" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
+      <c r="A92" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C92" s="41">
+      <c r="C92" s="45">
         <v>17744949221</v>
       </c>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="41"/>
-      <c r="K92" s="41"/>
-    </row>
-    <row r="93" spans="1:11" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A93" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B93" s="41" t="s">
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="45"/>
+      <c r="K92" s="45"/>
+    </row>
+    <row r="93" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
+      <c r="A93" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C93" s="41">
+      <c r="C93" s="45">
         <v>19969013901</v>
       </c>
-      <c r="D93" s="39"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="39"/>
-      <c r="G93" s="39"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="41"/>
-      <c r="K93" s="41"/>
-    </row>
-    <row r="94" spans="1:11" s="1" customFormat="1">
-      <c r="D94" s="39"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="39"/>
-      <c r="G94" s="39"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="41"/>
-      <c r="K94" s="41"/>
-    </row>
-    <row r="95" spans="1:11" s="1" customFormat="1">
-      <c r="D95" s="39"/>
-      <c r="E95" s="39"/>
-      <c r="F95" s="39"/>
-      <c r="G95" s="39"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="41"/>
-      <c r="K95" s="41"/>
-    </row>
-    <row r="96" spans="1:11" s="1" customFormat="1">
-      <c r="D96" s="39"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="39"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="41"/>
-      <c r="K96" s="41"/>
-    </row>
-    <row r="97" spans="1:11" s="1" customFormat="1">
-      <c r="D97" s="39"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="39"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="36"/>
-      <c r="K97" s="35"/>
-    </row>
-    <row r="98" spans="1:11" s="1" customFormat="1" ht="17">
-      <c r="D98" s="39"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="48"/>
-      <c r="J98" s="48"/>
-      <c r="K98" s="48"/>
-    </row>
-    <row r="99" spans="1:11" s="1" customFormat="1">
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="39"/>
-      <c r="G99" s="39"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="38"/>
-      <c r="J99" s="38"/>
-      <c r="K99" s="38"/>
-    </row>
-    <row r="100" spans="1:11" s="1" customFormat="1">
-      <c r="A100" s="35"/>
-      <c r="B100" s="35"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="42"/>
-      <c r="K100" s="41"/>
-    </row>
-    <row r="101" spans="1:11" s="1" customFormat="1">
-      <c r="A101" s="35"/>
-      <c r="B101" s="35"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="42"/>
-      <c r="K101" s="41"/>
-    </row>
-    <row r="102" spans="1:11" s="1" customFormat="1">
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
-      <c r="J102" s="40"/>
-      <c r="K102" s="41"/>
-    </row>
-    <row r="103" spans="1:11" s="1" customFormat="1">
-      <c r="D103" s="39"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="39"/>
-      <c r="G103" s="39"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="40"/>
-      <c r="K103" s="41"/>
-    </row>
-    <row r="104" spans="1:11" s="1" customFormat="1">
-      <c r="D104" s="39"/>
-      <c r="E104" s="39"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
-      <c r="J104" s="42"/>
-      <c r="K104" s="41"/>
-    </row>
-    <row r="105" spans="1:11" s="1" customFormat="1">
-      <c r="D105" s="39"/>
-      <c r="E105" s="39"/>
-      <c r="F105" s="39"/>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
-      <c r="I105" s="36"/>
-      <c r="J105" s="42"/>
-      <c r="K105" s="41"/>
-    </row>
-    <row r="106" spans="1:11" s="1" customFormat="1">
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="39"/>
-      <c r="J106" s="39"/>
-    </row>
-    <row r="107" spans="1:11" s="1" customFormat="1">
-      <c r="D107" s="39"/>
-      <c r="E107" s="39"/>
-      <c r="F107" s="39"/>
-      <c r="G107" s="39"/>
-      <c r="H107" s="39"/>
-      <c r="I107" s="39"/>
-      <c r="J107" s="39"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="40"/>
+      <c r="I93" s="40"/>
+      <c r="J93" s="45"/>
+      <c r="K93" s="45"/>
+    </row>
+    <row r="94" s="1" customFormat="1" ht="17.6" spans="4:11">
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="40"/>
+      <c r="I94" s="40"/>
+      <c r="J94" s="45"/>
+      <c r="K94" s="45"/>
+    </row>
+    <row r="95" s="1" customFormat="1" ht="17.6" spans="4:11">
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="45"/>
+      <c r="K95" s="45"/>
+    </row>
+    <row r="96" s="1" customFormat="1" ht="17.6" spans="4:11">
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="40"/>
+      <c r="J96" s="45"/>
+      <c r="K96" s="45"/>
+    </row>
+    <row r="97" s="1" customFormat="1" ht="17.6" spans="4:11">
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="43"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="40"/>
+      <c r="I97" s="40"/>
+      <c r="J97" s="40"/>
+      <c r="K97" s="39"/>
+    </row>
+    <row r="98" s="1" customFormat="1" ht="20.4" spans="4:11">
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="43"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="40"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="47"/>
+      <c r="K98" s="47"/>
+    </row>
+    <row r="99" s="1" customFormat="1" ht="17.6" spans="4:11">
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="40"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="42"/>
+      <c r="K99" s="42"/>
+    </row>
+    <row r="100" s="1" customFormat="1" ht="17.6" spans="1:11">
+      <c r="A100" s="39"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="40"/>
+      <c r="I100" s="40"/>
+      <c r="J100" s="46"/>
+      <c r="K100" s="45"/>
+    </row>
+    <row r="101" s="1" customFormat="1" ht="17.6" spans="1:11">
+      <c r="A101" s="39"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="40"/>
+      <c r="F101" s="40"/>
+      <c r="G101" s="40"/>
+      <c r="H101" s="40"/>
+      <c r="I101" s="40"/>
+      <c r="J101" s="46"/>
+      <c r="K101" s="45"/>
+    </row>
+    <row r="102" s="1" customFormat="1" ht="17.6" spans="4:11">
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="40"/>
+      <c r="I102" s="40"/>
+      <c r="J102" s="44"/>
+      <c r="K102" s="45"/>
+    </row>
+    <row r="103" s="1" customFormat="1" ht="17.6" spans="4:11">
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="40"/>
+      <c r="I103" s="40"/>
+      <c r="J103" s="44"/>
+      <c r="K103" s="45"/>
+    </row>
+    <row r="104" s="1" customFormat="1" ht="17.6" spans="4:11">
+      <c r="D104" s="43"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="40"/>
+      <c r="J104" s="46"/>
+      <c r="K104" s="45"/>
+    </row>
+    <row r="105" s="1" customFormat="1" ht="17.6" spans="4:11">
+      <c r="D105" s="43"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="43"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="43"/>
+      <c r="I105" s="40"/>
+      <c r="J105" s="46"/>
+      <c r="K105" s="45"/>
+    </row>
+    <row r="106" s="1" customFormat="1" spans="4:10">
+      <c r="D106" s="43"/>
+      <c r="E106" s="43"/>
+      <c r="F106" s="43"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="43"/>
+      <c r="I106" s="43"/>
+      <c r="J106" s="43"/>
+    </row>
+    <row r="107" s="1" customFormat="1" spans="4:10">
+      <c r="D107" s="43"/>
+      <c r="E107" s="43"/>
+      <c r="F107" s="43"/>
+      <c r="G107" s="43"/>
+      <c r="H107" s="43"/>
+      <c r="I107" s="43"/>
+      <c r="J107" s="43"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:K65" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A3:K65"/>
   <mergeCells count="43">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="E67:G67"/>
     <mergeCell ref="I67:K67"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="E76:G76"/>
     <mergeCell ref="I76:K76"/>
@@ -4237,15 +4819,26 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/template/深圳机场统一运维项目排班表.xlsx
+++ b/src/template/深圳机场统一运维项目排班表.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinguo/works/dc/imoc/深圳机场/source/imoc-sz-airport-frontend/src/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B06FE9-9929-2445-834C-7A457CAA0D49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12380"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="7月排班表" sheetId="19" r:id="rId1"/>
+    <sheet name="排班表" sheetId="19" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7月排班表'!$A$3:$K$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">排班表!$A$3:$K$65</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="73">
   <si>
     <t>深圳机场统一运维项目排班表-2020年7月</t>
   </si>
@@ -245,14 +251,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +263,7 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -270,196 +271,59 @@
       <b/>
       <sz val="20"/>
       <name val="华文中宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,228 +344,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799798577837458"/>
+        <fgColor theme="9" tint="0.79976805932798245"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799920651875362"/>
+        <fgColor theme="9" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799890133365886"/>
+        <fgColor theme="9" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.79973754081850645"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -761,271 +439,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1042,213 +478,172 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 6" xfId="1"/>
-    <cellStyle name="常规 5" xfId="2"/>
-    <cellStyle name="常规 4 2" xfId="3"/>
-    <cellStyle name="常规 4" xfId="4"/>
-    <cellStyle name="常规 2" xfId="5"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="6" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="7" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
-    <cellStyle name="输入" xfId="9" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="10" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="11" builtinId="38"/>
-    <cellStyle name="货币" xfId="12" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="13" builtinId="37"/>
-    <cellStyle name="百分比" xfId="14" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="16" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="17" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="18" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="19" builtinId="44"/>
-    <cellStyle name="计算" xfId="20" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="21" builtinId="29"/>
-    <cellStyle name="适中" xfId="22" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="23" builtinId="46"/>
-    <cellStyle name="好" xfId="24" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="25" builtinId="30"/>
-    <cellStyle name="汇总" xfId="26" builtinId="25"/>
-    <cellStyle name="差" xfId="27" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="28" builtinId="23"/>
-    <cellStyle name="输出" xfId="29" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="30" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="31" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="32" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="33" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="34" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="35" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="36" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="37" builtinId="9"/>
-    <cellStyle name="标题" xfId="38" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="40" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="41" builtinId="40"/>
-    <cellStyle name="注释" xfId="42" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="43" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
-    <cellStyle name="超链接" xfId="46" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="47" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="48" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="49" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="50" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="51" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="52" builtinId="31"/>
-    <cellStyle name="常规 3" xfId="53"/>
-    <cellStyle name="链接单元格" xfId="54" builtinId="24"/>
+    <cellStyle name="常规 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="常规 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 4 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FFFF00"/>
-      <color rgb="00FF0000"/>
-      <color rgb="001829FE"/>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FF1829FE"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1506,3303 +901,3298 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K85" sqref="K85"/>
+      <selection pane="bottomRight" activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.8303571428571" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.1607142857143" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.8303571428571" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.8303571428571" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.8303571428571" style="3" customWidth="1"/>
-    <col min="6" max="8" width="16.8303571428571" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="3" customWidth="1"/>
+    <col min="6" max="8" width="16.83203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="18" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.8303571428571" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16.8303571428571" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" style="5" customWidth="1"/>
     <col min="12" max="252" width="9" style="2"/>
-    <col min="253" max="253" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="253" max="253" width="21.83203125" style="2" customWidth="1"/>
     <col min="254" max="254" width="17.5" style="2" customWidth="1"/>
     <col min="255" max="260" width="16.5" style="2" customWidth="1"/>
     <col min="261" max="508" width="9" style="2"/>
-    <col min="509" max="509" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="509" max="509" width="21.83203125" style="2" customWidth="1"/>
     <col min="510" max="510" width="17.5" style="2" customWidth="1"/>
     <col min="511" max="516" width="16.5" style="2" customWidth="1"/>
     <col min="517" max="764" width="9" style="2"/>
-    <col min="765" max="765" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="765" max="765" width="21.83203125" style="2" customWidth="1"/>
     <col min="766" max="766" width="17.5" style="2" customWidth="1"/>
     <col min="767" max="772" width="16.5" style="2" customWidth="1"/>
     <col min="773" max="1020" width="9" style="2"/>
-    <col min="1021" max="1021" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="1021" max="1021" width="21.83203125" style="2" customWidth="1"/>
     <col min="1022" max="1022" width="17.5" style="2" customWidth="1"/>
     <col min="1023" max="1028" width="16.5" style="2" customWidth="1"/>
     <col min="1029" max="1276" width="9" style="2"/>
-    <col min="1277" max="1277" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="1277" max="1277" width="21.83203125" style="2" customWidth="1"/>
     <col min="1278" max="1278" width="17.5" style="2" customWidth="1"/>
     <col min="1279" max="1284" width="16.5" style="2" customWidth="1"/>
     <col min="1285" max="1532" width="9" style="2"/>
-    <col min="1533" max="1533" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="1533" max="1533" width="21.83203125" style="2" customWidth="1"/>
     <col min="1534" max="1534" width="17.5" style="2" customWidth="1"/>
     <col min="1535" max="1540" width="16.5" style="2" customWidth="1"/>
     <col min="1541" max="1788" width="9" style="2"/>
-    <col min="1789" max="1789" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="1789" max="1789" width="21.83203125" style="2" customWidth="1"/>
     <col min="1790" max="1790" width="17.5" style="2" customWidth="1"/>
     <col min="1791" max="1796" width="16.5" style="2" customWidth="1"/>
     <col min="1797" max="2044" width="9" style="2"/>
-    <col min="2045" max="2045" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="2045" max="2045" width="21.83203125" style="2" customWidth="1"/>
     <col min="2046" max="2046" width="17.5" style="2" customWidth="1"/>
     <col min="2047" max="2052" width="16.5" style="2" customWidth="1"/>
     <col min="2053" max="2300" width="9" style="2"/>
-    <col min="2301" max="2301" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="2301" max="2301" width="21.83203125" style="2" customWidth="1"/>
     <col min="2302" max="2302" width="17.5" style="2" customWidth="1"/>
     <col min="2303" max="2308" width="16.5" style="2" customWidth="1"/>
     <col min="2309" max="2556" width="9" style="2"/>
-    <col min="2557" max="2557" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="2557" max="2557" width="21.83203125" style="2" customWidth="1"/>
     <col min="2558" max="2558" width="17.5" style="2" customWidth="1"/>
     <col min="2559" max="2564" width="16.5" style="2" customWidth="1"/>
     <col min="2565" max="2812" width="9" style="2"/>
-    <col min="2813" max="2813" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="2813" max="2813" width="21.83203125" style="2" customWidth="1"/>
     <col min="2814" max="2814" width="17.5" style="2" customWidth="1"/>
     <col min="2815" max="2820" width="16.5" style="2" customWidth="1"/>
     <col min="2821" max="3068" width="9" style="2"/>
-    <col min="3069" max="3069" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="3069" max="3069" width="21.83203125" style="2" customWidth="1"/>
     <col min="3070" max="3070" width="17.5" style="2" customWidth="1"/>
     <col min="3071" max="3076" width="16.5" style="2" customWidth="1"/>
     <col min="3077" max="3324" width="9" style="2"/>
-    <col min="3325" max="3325" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="3325" max="3325" width="21.83203125" style="2" customWidth="1"/>
     <col min="3326" max="3326" width="17.5" style="2" customWidth="1"/>
     <col min="3327" max="3332" width="16.5" style="2" customWidth="1"/>
     <col min="3333" max="3580" width="9" style="2"/>
-    <col min="3581" max="3581" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="3581" max="3581" width="21.83203125" style="2" customWidth="1"/>
     <col min="3582" max="3582" width="17.5" style="2" customWidth="1"/>
     <col min="3583" max="3588" width="16.5" style="2" customWidth="1"/>
     <col min="3589" max="3836" width="9" style="2"/>
-    <col min="3837" max="3837" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="3837" max="3837" width="21.83203125" style="2" customWidth="1"/>
     <col min="3838" max="3838" width="17.5" style="2" customWidth="1"/>
     <col min="3839" max="3844" width="16.5" style="2" customWidth="1"/>
     <col min="3845" max="4092" width="9" style="2"/>
-    <col min="4093" max="4093" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="4093" max="4093" width="21.83203125" style="2" customWidth="1"/>
     <col min="4094" max="4094" width="17.5" style="2" customWidth="1"/>
     <col min="4095" max="4100" width="16.5" style="2" customWidth="1"/>
     <col min="4101" max="4348" width="9" style="2"/>
-    <col min="4349" max="4349" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="4349" max="4349" width="21.83203125" style="2" customWidth="1"/>
     <col min="4350" max="4350" width="17.5" style="2" customWidth="1"/>
     <col min="4351" max="4356" width="16.5" style="2" customWidth="1"/>
     <col min="4357" max="4604" width="9" style="2"/>
-    <col min="4605" max="4605" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="4605" max="4605" width="21.83203125" style="2" customWidth="1"/>
     <col min="4606" max="4606" width="17.5" style="2" customWidth="1"/>
     <col min="4607" max="4612" width="16.5" style="2" customWidth="1"/>
     <col min="4613" max="4860" width="9" style="2"/>
-    <col min="4861" max="4861" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="4861" max="4861" width="21.83203125" style="2" customWidth="1"/>
     <col min="4862" max="4862" width="17.5" style="2" customWidth="1"/>
     <col min="4863" max="4868" width="16.5" style="2" customWidth="1"/>
     <col min="4869" max="5116" width="9" style="2"/>
-    <col min="5117" max="5117" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="5117" max="5117" width="21.83203125" style="2" customWidth="1"/>
     <col min="5118" max="5118" width="17.5" style="2" customWidth="1"/>
     <col min="5119" max="5124" width="16.5" style="2" customWidth="1"/>
     <col min="5125" max="5372" width="9" style="2"/>
-    <col min="5373" max="5373" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="5373" max="5373" width="21.83203125" style="2" customWidth="1"/>
     <col min="5374" max="5374" width="17.5" style="2" customWidth="1"/>
     <col min="5375" max="5380" width="16.5" style="2" customWidth="1"/>
     <col min="5381" max="5628" width="9" style="2"/>
-    <col min="5629" max="5629" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="5629" max="5629" width="21.83203125" style="2" customWidth="1"/>
     <col min="5630" max="5630" width="17.5" style="2" customWidth="1"/>
     <col min="5631" max="5636" width="16.5" style="2" customWidth="1"/>
     <col min="5637" max="5884" width="9" style="2"/>
-    <col min="5885" max="5885" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="5885" max="5885" width="21.83203125" style="2" customWidth="1"/>
     <col min="5886" max="5886" width="17.5" style="2" customWidth="1"/>
     <col min="5887" max="5892" width="16.5" style="2" customWidth="1"/>
     <col min="5893" max="6140" width="9" style="2"/>
-    <col min="6141" max="6141" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="6141" max="6141" width="21.83203125" style="2" customWidth="1"/>
     <col min="6142" max="6142" width="17.5" style="2" customWidth="1"/>
     <col min="6143" max="6148" width="16.5" style="2" customWidth="1"/>
     <col min="6149" max="6396" width="9" style="2"/>
-    <col min="6397" max="6397" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="6397" max="6397" width="21.83203125" style="2" customWidth="1"/>
     <col min="6398" max="6398" width="17.5" style="2" customWidth="1"/>
     <col min="6399" max="6404" width="16.5" style="2" customWidth="1"/>
     <col min="6405" max="6652" width="9" style="2"/>
-    <col min="6653" max="6653" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="6653" max="6653" width="21.83203125" style="2" customWidth="1"/>
     <col min="6654" max="6654" width="17.5" style="2" customWidth="1"/>
     <col min="6655" max="6660" width="16.5" style="2" customWidth="1"/>
     <col min="6661" max="6908" width="9" style="2"/>
-    <col min="6909" max="6909" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="6909" max="6909" width="21.83203125" style="2" customWidth="1"/>
     <col min="6910" max="6910" width="17.5" style="2" customWidth="1"/>
     <col min="6911" max="6916" width="16.5" style="2" customWidth="1"/>
     <col min="6917" max="7164" width="9" style="2"/>
-    <col min="7165" max="7165" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="7165" max="7165" width="21.83203125" style="2" customWidth="1"/>
     <col min="7166" max="7166" width="17.5" style="2" customWidth="1"/>
     <col min="7167" max="7172" width="16.5" style="2" customWidth="1"/>
     <col min="7173" max="7420" width="9" style="2"/>
-    <col min="7421" max="7421" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="7421" max="7421" width="21.83203125" style="2" customWidth="1"/>
     <col min="7422" max="7422" width="17.5" style="2" customWidth="1"/>
     <col min="7423" max="7428" width="16.5" style="2" customWidth="1"/>
     <col min="7429" max="7676" width="9" style="2"/>
-    <col min="7677" max="7677" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="7677" max="7677" width="21.83203125" style="2" customWidth="1"/>
     <col min="7678" max="7678" width="17.5" style="2" customWidth="1"/>
     <col min="7679" max="7684" width="16.5" style="2" customWidth="1"/>
     <col min="7685" max="7932" width="9" style="2"/>
-    <col min="7933" max="7933" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="7933" max="7933" width="21.83203125" style="2" customWidth="1"/>
     <col min="7934" max="7934" width="17.5" style="2" customWidth="1"/>
     <col min="7935" max="7940" width="16.5" style="2" customWidth="1"/>
     <col min="7941" max="8188" width="9" style="2"/>
-    <col min="8189" max="8189" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="8189" max="8189" width="21.83203125" style="2" customWidth="1"/>
     <col min="8190" max="8190" width="17.5" style="2" customWidth="1"/>
     <col min="8191" max="8196" width="16.5" style="2" customWidth="1"/>
     <col min="8197" max="8444" width="9" style="2"/>
-    <col min="8445" max="8445" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="8445" max="8445" width="21.83203125" style="2" customWidth="1"/>
     <col min="8446" max="8446" width="17.5" style="2" customWidth="1"/>
     <col min="8447" max="8452" width="16.5" style="2" customWidth="1"/>
     <col min="8453" max="8700" width="9" style="2"/>
-    <col min="8701" max="8701" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="8701" max="8701" width="21.83203125" style="2" customWidth="1"/>
     <col min="8702" max="8702" width="17.5" style="2" customWidth="1"/>
     <col min="8703" max="8708" width="16.5" style="2" customWidth="1"/>
     <col min="8709" max="8956" width="9" style="2"/>
-    <col min="8957" max="8957" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="8957" max="8957" width="21.83203125" style="2" customWidth="1"/>
     <col min="8958" max="8958" width="17.5" style="2" customWidth="1"/>
     <col min="8959" max="8964" width="16.5" style="2" customWidth="1"/>
     <col min="8965" max="9212" width="9" style="2"/>
-    <col min="9213" max="9213" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="9213" max="9213" width="21.83203125" style="2" customWidth="1"/>
     <col min="9214" max="9214" width="17.5" style="2" customWidth="1"/>
     <col min="9215" max="9220" width="16.5" style="2" customWidth="1"/>
     <col min="9221" max="9468" width="9" style="2"/>
-    <col min="9469" max="9469" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="9469" max="9469" width="21.83203125" style="2" customWidth="1"/>
     <col min="9470" max="9470" width="17.5" style="2" customWidth="1"/>
     <col min="9471" max="9476" width="16.5" style="2" customWidth="1"/>
     <col min="9477" max="9724" width="9" style="2"/>
-    <col min="9725" max="9725" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="9725" max="9725" width="21.83203125" style="2" customWidth="1"/>
     <col min="9726" max="9726" width="17.5" style="2" customWidth="1"/>
     <col min="9727" max="9732" width="16.5" style="2" customWidth="1"/>
     <col min="9733" max="9980" width="9" style="2"/>
-    <col min="9981" max="9981" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="9981" max="9981" width="21.83203125" style="2" customWidth="1"/>
     <col min="9982" max="9982" width="17.5" style="2" customWidth="1"/>
     <col min="9983" max="9988" width="16.5" style="2" customWidth="1"/>
     <col min="9989" max="10236" width="9" style="2"/>
-    <col min="10237" max="10237" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="10237" max="10237" width="21.83203125" style="2" customWidth="1"/>
     <col min="10238" max="10238" width="17.5" style="2" customWidth="1"/>
     <col min="10239" max="10244" width="16.5" style="2" customWidth="1"/>
     <col min="10245" max="10492" width="9" style="2"/>
-    <col min="10493" max="10493" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="10493" max="10493" width="21.83203125" style="2" customWidth="1"/>
     <col min="10494" max="10494" width="17.5" style="2" customWidth="1"/>
     <col min="10495" max="10500" width="16.5" style="2" customWidth="1"/>
     <col min="10501" max="10748" width="9" style="2"/>
-    <col min="10749" max="10749" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="10749" max="10749" width="21.83203125" style="2" customWidth="1"/>
     <col min="10750" max="10750" width="17.5" style="2" customWidth="1"/>
     <col min="10751" max="10756" width="16.5" style="2" customWidth="1"/>
     <col min="10757" max="11004" width="9" style="2"/>
-    <col min="11005" max="11005" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="11005" max="11005" width="21.83203125" style="2" customWidth="1"/>
     <col min="11006" max="11006" width="17.5" style="2" customWidth="1"/>
     <col min="11007" max="11012" width="16.5" style="2" customWidth="1"/>
     <col min="11013" max="11260" width="9" style="2"/>
-    <col min="11261" max="11261" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="11261" max="11261" width="21.83203125" style="2" customWidth="1"/>
     <col min="11262" max="11262" width="17.5" style="2" customWidth="1"/>
     <col min="11263" max="11268" width="16.5" style="2" customWidth="1"/>
     <col min="11269" max="11516" width="9" style="2"/>
-    <col min="11517" max="11517" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="11517" max="11517" width="21.83203125" style="2" customWidth="1"/>
     <col min="11518" max="11518" width="17.5" style="2" customWidth="1"/>
     <col min="11519" max="11524" width="16.5" style="2" customWidth="1"/>
     <col min="11525" max="11772" width="9" style="2"/>
-    <col min="11773" max="11773" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="11773" max="11773" width="21.83203125" style="2" customWidth="1"/>
     <col min="11774" max="11774" width="17.5" style="2" customWidth="1"/>
     <col min="11775" max="11780" width="16.5" style="2" customWidth="1"/>
     <col min="11781" max="12028" width="9" style="2"/>
-    <col min="12029" max="12029" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="12029" max="12029" width="21.83203125" style="2" customWidth="1"/>
     <col min="12030" max="12030" width="17.5" style="2" customWidth="1"/>
     <col min="12031" max="12036" width="16.5" style="2" customWidth="1"/>
     <col min="12037" max="12284" width="9" style="2"/>
-    <col min="12285" max="12285" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="12285" max="12285" width="21.83203125" style="2" customWidth="1"/>
     <col min="12286" max="12286" width="17.5" style="2" customWidth="1"/>
     <col min="12287" max="12292" width="16.5" style="2" customWidth="1"/>
     <col min="12293" max="12540" width="9" style="2"/>
-    <col min="12541" max="12541" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="12541" max="12541" width="21.83203125" style="2" customWidth="1"/>
     <col min="12542" max="12542" width="17.5" style="2" customWidth="1"/>
     <col min="12543" max="12548" width="16.5" style="2" customWidth="1"/>
     <col min="12549" max="12796" width="9" style="2"/>
-    <col min="12797" max="12797" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="12797" max="12797" width="21.83203125" style="2" customWidth="1"/>
     <col min="12798" max="12798" width="17.5" style="2" customWidth="1"/>
     <col min="12799" max="12804" width="16.5" style="2" customWidth="1"/>
     <col min="12805" max="13052" width="9" style="2"/>
-    <col min="13053" max="13053" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="13053" max="13053" width="21.83203125" style="2" customWidth="1"/>
     <col min="13054" max="13054" width="17.5" style="2" customWidth="1"/>
     <col min="13055" max="13060" width="16.5" style="2" customWidth="1"/>
     <col min="13061" max="13308" width="9" style="2"/>
-    <col min="13309" max="13309" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="13309" max="13309" width="21.83203125" style="2" customWidth="1"/>
     <col min="13310" max="13310" width="17.5" style="2" customWidth="1"/>
     <col min="13311" max="13316" width="16.5" style="2" customWidth="1"/>
     <col min="13317" max="13564" width="9" style="2"/>
-    <col min="13565" max="13565" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="13565" max="13565" width="21.83203125" style="2" customWidth="1"/>
     <col min="13566" max="13566" width="17.5" style="2" customWidth="1"/>
     <col min="13567" max="13572" width="16.5" style="2" customWidth="1"/>
     <col min="13573" max="13820" width="9" style="2"/>
-    <col min="13821" max="13821" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="13821" max="13821" width="21.83203125" style="2" customWidth="1"/>
     <col min="13822" max="13822" width="17.5" style="2" customWidth="1"/>
     <col min="13823" max="13828" width="16.5" style="2" customWidth="1"/>
     <col min="13829" max="14076" width="9" style="2"/>
-    <col min="14077" max="14077" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="14077" max="14077" width="21.83203125" style="2" customWidth="1"/>
     <col min="14078" max="14078" width="17.5" style="2" customWidth="1"/>
     <col min="14079" max="14084" width="16.5" style="2" customWidth="1"/>
     <col min="14085" max="14332" width="9" style="2"/>
-    <col min="14333" max="14333" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="14333" max="14333" width="21.83203125" style="2" customWidth="1"/>
     <col min="14334" max="14334" width="17.5" style="2" customWidth="1"/>
     <col min="14335" max="14340" width="16.5" style="2" customWidth="1"/>
     <col min="14341" max="14588" width="9" style="2"/>
-    <col min="14589" max="14589" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="14589" max="14589" width="21.83203125" style="2" customWidth="1"/>
     <col min="14590" max="14590" width="17.5" style="2" customWidth="1"/>
     <col min="14591" max="14596" width="16.5" style="2" customWidth="1"/>
     <col min="14597" max="14844" width="9" style="2"/>
-    <col min="14845" max="14845" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="14845" max="14845" width="21.83203125" style="2" customWidth="1"/>
     <col min="14846" max="14846" width="17.5" style="2" customWidth="1"/>
     <col min="14847" max="14852" width="16.5" style="2" customWidth="1"/>
     <col min="14853" max="15100" width="9" style="2"/>
-    <col min="15101" max="15101" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="15101" max="15101" width="21.83203125" style="2" customWidth="1"/>
     <col min="15102" max="15102" width="17.5" style="2" customWidth="1"/>
     <col min="15103" max="15108" width="16.5" style="2" customWidth="1"/>
     <col min="15109" max="15356" width="9" style="2"/>
-    <col min="15357" max="15357" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="15357" max="15357" width="21.83203125" style="2" customWidth="1"/>
     <col min="15358" max="15358" width="17.5" style="2" customWidth="1"/>
     <col min="15359" max="15364" width="16.5" style="2" customWidth="1"/>
     <col min="15365" max="15612" width="9" style="2"/>
-    <col min="15613" max="15613" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="15613" max="15613" width="21.83203125" style="2" customWidth="1"/>
     <col min="15614" max="15614" width="17.5" style="2" customWidth="1"/>
     <col min="15615" max="15620" width="16.5" style="2" customWidth="1"/>
     <col min="15621" max="15868" width="9" style="2"/>
-    <col min="15869" max="15869" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="15869" max="15869" width="21.83203125" style="2" customWidth="1"/>
     <col min="15870" max="15870" width="17.5" style="2" customWidth="1"/>
     <col min="15871" max="15876" width="16.5" style="2" customWidth="1"/>
     <col min="15877" max="16124" width="9" style="2"/>
-    <col min="16125" max="16125" width="21.8303571428571" style="2" customWidth="1"/>
+    <col min="16125" max="16125" width="21.83203125" style="2" customWidth="1"/>
     <col min="16126" max="16126" width="17.5" style="2" customWidth="1"/>
     <col min="16127" max="16132" width="16.5" style="2" customWidth="1"/>
     <col min="16133" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39.5" customHeight="1" spans="1:11">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="39.5" customHeight="1">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-    </row>
-    <row r="2" ht="32" customHeight="1" spans="1:11">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+    </row>
+    <row r="2" spans="1:11" ht="32" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="43" customHeight="1" spans="1:11">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:11" ht="43" customHeight="1">
+      <c r="A3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A4" s="10">
+    <row r="4" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A4" s="51">
         <v>44013</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A5" s="51"/>
+      <c r="B5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A6" s="10">
+    <row r="6" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A6" s="51">
         <v>44014</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A7" s="10"/>
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A7" s="51"/>
+      <c r="B7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A8" s="10">
+    <row r="8" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A8" s="51">
         <v>44015</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A9" s="51"/>
+      <c r="B9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A10" s="15">
+    <row r="10" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A10" s="52">
         <v>44016</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A11" s="15"/>
-      <c r="B11" s="13" t="s">
+    <row r="11" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A11" s="52"/>
+      <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A12" s="15">
+    <row r="12" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A12" s="52">
         <v>44017</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A13" s="15"/>
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A13" s="52"/>
+      <c r="B13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="35" t="s">
+      <c r="K13" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A14" s="10">
+    <row r="14" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A14" s="51">
         <v>44018</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A15" s="10"/>
-      <c r="B15" s="13" t="s">
+    <row r="15" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A15" s="51"/>
+      <c r="B15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="18" customHeight="1" spans="1:11">
-      <c r="A16" s="10">
+    <row r="16" spans="1:11" ht="18" customHeight="1">
+      <c r="A16" s="51">
         <v>44019</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" ht="18" customHeight="1" spans="1:11">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="1:11" ht="18" customHeight="1">
+      <c r="A17" s="51"/>
+      <c r="B17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="37" t="s">
+      <c r="K17" s="33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A18" s="10">
+    <row r="18" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A18" s="51">
         <v>44020</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A19" s="10"/>
-      <c r="B19" s="13" t="s">
+    <row r="19" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A19" s="51"/>
+      <c r="B19" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="36" t="s">
+      <c r="K19" s="32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A20" s="10">
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="17.5" customHeight="1">
+      <c r="A20" s="51">
         <v>44021</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="35" t="s">
+      <c r="K20" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A21" s="10"/>
-      <c r="B21" s="16" t="s">
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="17.5" customHeight="1">
+      <c r="A21" s="51"/>
+      <c r="B21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="35" t="s">
+      <c r="K21" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A22" s="10">
+    <row r="22" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A22" s="51">
         <v>44022</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A23" s="10"/>
-      <c r="B23" s="13" t="s">
+    <row r="23" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A23" s="51"/>
+      <c r="B23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="36" t="s">
+      <c r="K23" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A24" s="15">
+    <row r="24" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A24" s="52">
         <v>44023</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K24" s="35" t="s">
+      <c r="K24" s="31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A25" s="15"/>
-      <c r="B25" s="11" t="s">
+    <row r="25" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A25" s="52"/>
+      <c r="B25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="H25" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="37" t="s">
+      <c r="K25" s="33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A26" s="15">
+    <row r="26" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A26" s="52">
         <v>44024</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K26" s="38" t="s">
+      <c r="K26" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A27" s="15"/>
-      <c r="B27" s="13" t="s">
+    <row r="27" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A27" s="52"/>
+      <c r="B27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="14" t="s">
+      <c r="I27" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K27" s="36" t="s">
+      <c r="K27" s="32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A28" s="10">
+    <row r="28" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A28" s="51">
         <v>44025</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="35" t="s">
+      <c r="K28" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11" t="s">
+    <row r="29" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A29" s="51"/>
+      <c r="B29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K29" s="35" t="s">
+      <c r="K29" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A30" s="10">
+    <row r="30" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A30" s="51">
         <v>44026</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J30" s="14" t="s">
+      <c r="J30" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K30" s="36" t="s">
+      <c r="K30" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A31" s="10"/>
-      <c r="B31" s="13" t="s">
+    <row r="31" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A31" s="51"/>
+      <c r="B31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="H31" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="14" t="s">
+      <c r="J31" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="36" t="s">
+      <c r="K31" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A32" s="10">
+    <row r="32" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A32" s="51">
         <v>44027</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K32" s="35" t="s">
+      <c r="K32" s="31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11" t="s">
+    <row r="33" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A33" s="51"/>
+      <c r="B33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H33" s="24" t="s">
+      <c r="H33" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K33" s="37" t="s">
+      <c r="K33" s="33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A34" s="10">
+    <row r="34" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A34" s="51">
         <v>44028</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="H34" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K34" s="38" t="s">
+      <c r="K34" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A35" s="10"/>
-      <c r="B35" s="13" t="s">
+    <row r="35" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A35" s="51"/>
+      <c r="B35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="27" t="s">
+      <c r="H35" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I35" s="14" t="s">
+      <c r="I35" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J35" s="14" t="s">
+      <c r="J35" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K35" s="36" t="s">
+      <c r="K35" s="32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A36" s="10">
+    <row r="36" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A36" s="51">
         <v>44029</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G36" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="J36" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="35" t="s">
+      <c r="K36" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11" t="s">
+    <row r="37" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A37" s="51"/>
+      <c r="B37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="H37" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="I37" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="J37" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K37" s="35" t="s">
+      <c r="K37" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A38" s="15">
+    <row r="38" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A38" s="52">
         <v>44030</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="19" t="s">
+      <c r="H38" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="17" t="s">
+      <c r="I38" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J38" s="14" t="s">
+      <c r="J38" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K38" s="36" t="s">
+      <c r="K38" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A39" s="15"/>
-      <c r="B39" s="13" t="s">
+    <row r="39" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A39" s="52"/>
+      <c r="B39" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="19" t="s">
+      <c r="H39" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="I39" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J39" s="14" t="s">
+      <c r="J39" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="36" t="s">
+      <c r="K39" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A40" s="15">
+    <row r="40" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A40" s="52">
         <v>44031</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="I40" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="J40" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K40" s="35" t="s">
+      <c r="K40" s="31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A41" s="15"/>
-      <c r="B41" s="11" t="s">
+    <row r="41" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A41" s="52"/>
+      <c r="B41" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H41" s="18" t="s">
+      <c r="H41" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="I41" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J41" s="12" t="s">
+      <c r="J41" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K41" s="37" t="s">
+      <c r="K41" s="33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A42" s="10">
+    <row r="42" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A42" s="51">
         <v>44032</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="F42" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H42" s="19" t="s">
+      <c r="H42" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I42" s="14" t="s">
+      <c r="I42" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J42" s="14" t="s">
+      <c r="J42" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K42" s="38" t="s">
+      <c r="K42" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A43" s="10"/>
-      <c r="B43" s="13" t="s">
+    <row r="43" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A43" s="51"/>
+      <c r="B43" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="29" t="s">
+      <c r="F43" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H43" s="19" t="s">
+      <c r="H43" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I43" s="14" t="s">
+      <c r="I43" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J43" s="14" t="s">
+      <c r="J43" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K43" s="36" t="s">
+      <c r="K43" s="32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A44" s="10">
+    <row r="44" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A44" s="51">
         <v>44033</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="J44" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K44" s="35" t="s">
+      <c r="K44" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11" t="s">
+    <row r="45" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A45" s="51"/>
+      <c r="B45" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G45" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="18" t="s">
+      <c r="H45" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J45" s="12" t="s">
+      <c r="J45" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="35" t="s">
+      <c r="K45" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A46" s="10">
+    <row r="46" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A46" s="51">
         <v>44034</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E46" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="29" t="s">
+      <c r="F46" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="19" t="s">
+      <c r="H46" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="I46" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J46" s="14" t="s">
+      <c r="J46" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K46" s="36" t="s">
+      <c r="K46" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A47" s="10"/>
-      <c r="B47" s="13" t="s">
+    <row r="47" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A47" s="51"/>
+      <c r="B47" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="28" t="s">
+      <c r="F47" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H47" s="19" t="s">
+      <c r="H47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I47" s="17" t="s">
+      <c r="I47" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J47" s="14" t="s">
+      <c r="J47" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K47" s="36" t="s">
+      <c r="K47" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A48" s="10">
+    <row r="48" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A48" s="51">
         <v>44035</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="F48" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="G48" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="H48" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="I48" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J48" s="12" t="s">
+      <c r="J48" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K48" s="35" t="s">
+      <c r="K48" s="31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11" t="s">
+    <row r="49" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A49" s="51"/>
+      <c r="B49" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G49" s="12" t="s">
+      <c r="G49" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H49" s="18" t="s">
+      <c r="H49" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="I49" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J49" s="12" t="s">
+      <c r="J49" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K49" s="37" t="s">
+      <c r="K49" s="33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A50" s="10">
+    <row r="50" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A50" s="51">
         <v>44036</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F50" s="30" t="s">
+      <c r="F50" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G50" s="14" t="s">
+      <c r="G50" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H50" s="19" t="s">
+      <c r="H50" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I50" s="14" t="s">
+      <c r="I50" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J50" s="14" t="s">
+      <c r="J50" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K50" s="38" t="s">
+      <c r="K50" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A51" s="10"/>
-      <c r="B51" s="13" t="s">
+    <row r="51" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A51" s="51"/>
+      <c r="B51" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F51" s="31" t="s">
+      <c r="F51" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="G51" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="19" t="s">
+      <c r="H51" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I51" s="14" t="s">
+      <c r="I51" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J51" s="14" t="s">
+      <c r="J51" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K51" s="36" t="s">
+      <c r="K51" s="32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A52" s="15">
+    <row r="52" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A52" s="52">
         <v>44037</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F52" s="24" t="s">
+      <c r="F52" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G52" s="12" t="s">
+      <c r="G52" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="12" t="s">
+      <c r="H52" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I52" s="12" t="s">
+      <c r="I52" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J52" s="12" t="s">
+      <c r="J52" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K52" s="35" t="s">
+      <c r="K52" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A53" s="15"/>
-      <c r="B53" s="11" t="s">
+    <row r="53" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A53" s="52"/>
+      <c r="B53" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F53" s="24" t="s">
+      <c r="F53" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G53" s="12" t="s">
+      <c r="G53" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H53" s="18" t="s">
+      <c r="H53" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I53" s="12" t="s">
+      <c r="I53" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J53" s="12" t="s">
+      <c r="J53" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K53" s="35" t="s">
+      <c r="K53" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A54" s="15">
+    <row r="54" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A54" s="52">
         <v>44038</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="E54" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="F54" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H54" s="19" t="s">
+      <c r="H54" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I54" s="17" t="s">
+      <c r="I54" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J54" s="14" t="s">
+      <c r="J54" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K54" s="36" t="s">
+      <c r="K54" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A55" s="15"/>
-      <c r="B55" s="13" t="s">
+    <row r="55" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A55" s="52"/>
+      <c r="B55" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F55" s="28" t="s">
+      <c r="F55" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="G55" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H55" s="19" t="s">
+      <c r="H55" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I55" s="17" t="s">
+      <c r="I55" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J55" s="14" t="s">
+      <c r="J55" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K55" s="36" t="s">
+      <c r="K55" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A56" s="10">
+    <row r="56" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A56" s="51">
         <v>44039</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G56" s="12" t="s">
+      <c r="G56" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H56" s="12" t="s">
+      <c r="H56" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="I56" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J56" s="12" t="s">
+      <c r="J56" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K56" s="35" t="s">
+      <c r="K56" s="31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A57" s="10"/>
-      <c r="B57" s="11" t="s">
+    <row r="57" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A57" s="51"/>
+      <c r="B57" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F57" s="25" t="s">
+      <c r="F57" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G57" s="12" t="s">
+      <c r="G57" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H57" s="18" t="s">
+      <c r="H57" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I57" s="12" t="s">
+      <c r="I57" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J57" s="12" t="s">
+      <c r="J57" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K57" s="37" t="s">
+      <c r="K57" s="33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A58" s="10">
+    <row r="58" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A58" s="51">
         <v>44040</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F58" s="30" t="s">
+      <c r="F58" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G58" s="14" t="s">
+      <c r="G58" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H58" s="19" t="s">
+      <c r="H58" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I58" s="14" t="s">
+      <c r="I58" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J58" s="14" t="s">
+      <c r="J58" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K58" s="38" t="s">
+      <c r="K58" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="59" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A59" s="10"/>
-      <c r="B59" s="13" t="s">
+    <row r="59" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A59" s="51"/>
+      <c r="B59" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E59" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F59" s="31" t="s">
+      <c r="F59" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G59" s="14" t="s">
+      <c r="G59" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H59" s="19" t="s">
+      <c r="H59" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I59" s="14" t="s">
+      <c r="I59" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J59" s="14" t="s">
+      <c r="J59" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K59" s="36" t="s">
+      <c r="K59" s="32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="60" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A60" s="10">
+    <row r="60" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A60" s="51">
         <v>44041</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F60" s="24" t="s">
+      <c r="F60" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G60" s="12" t="s">
+      <c r="G60" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H60" s="12" t="s">
+      <c r="H60" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I60" s="12" t="s">
+      <c r="I60" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J60" s="12" t="s">
+      <c r="J60" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K60" s="35" t="s">
+      <c r="K60" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="61" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A61" s="10"/>
-      <c r="B61" s="11" t="s">
+    <row r="61" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A61" s="51"/>
+      <c r="B61" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F61" s="24" t="s">
+      <c r="F61" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G61" s="12" t="s">
+      <c r="G61" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H61" s="18" t="s">
+      <c r="H61" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I61" s="12" t="s">
+      <c r="I61" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J61" s="12" t="s">
+      <c r="J61" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K61" s="35" t="s">
+      <c r="K61" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="62" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A62" s="10">
+    <row r="62" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A62" s="51">
         <v>44042</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="E62" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F62" s="29" t="s">
+      <c r="F62" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G62" s="14" t="s">
+      <c r="G62" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H62" s="19" t="s">
+      <c r="H62" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I62" s="17" t="s">
+      <c r="I62" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J62" s="14" t="s">
+      <c r="J62" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K62" s="36" t="s">
+      <c r="K62" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="63" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A63" s="10"/>
-      <c r="B63" s="13" t="s">
+    <row r="63" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A63" s="51"/>
+      <c r="B63" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="E63" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F63" s="28" t="s">
+      <c r="F63" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G63" s="14" t="s">
+      <c r="G63" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H63" s="19" t="s">
+      <c r="H63" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I63" s="17" t="s">
+      <c r="I63" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J63" s="14" t="s">
+      <c r="J63" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K63" s="36" t="s">
+      <c r="K63" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="64" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A64" s="10">
+    <row r="64" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A64" s="51">
         <v>44043</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F64" s="24" t="s">
+      <c r="F64" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G64" s="12" t="s">
+      <c r="G64" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H64" s="12" t="s">
+      <c r="H64" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I64" s="12" t="s">
+      <c r="I64" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J64" s="12" t="s">
+      <c r="J64" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K64" s="35" t="s">
+      <c r="K64" s="31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="65" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A65" s="10"/>
-      <c r="B65" s="11" t="s">
+    <row r="65" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A65" s="51"/>
+      <c r="B65" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="E65" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F65" s="25" t="s">
+      <c r="F65" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G65" s="12" t="s">
+      <c r="G65" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H65" s="18" t="s">
+      <c r="H65" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I65" s="12" t="s">
+      <c r="I65" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J65" s="12" t="s">
+      <c r="J65" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K65" s="37" t="s">
+      <c r="K65" s="33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" ht="17.6" spans="1:11">
-      <c r="A66" s="39"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="40"/>
-      <c r="K66" s="39"/>
-    </row>
-    <row r="67" s="1" customFormat="1" ht="20.4" spans="1:11">
-      <c r="A67" s="41" t="s">
+    <row r="66" spans="1:11" s="1" customFormat="1">
+      <c r="A66" s="35"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="35"/>
+    </row>
+    <row r="67" spans="1:11" s="1" customFormat="1" ht="17">
+      <c r="A67" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="47" t="s">
+      <c r="B67" s="49"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="47" t="s">
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-    </row>
-    <row r="68" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
-      <c r="A68" s="42" t="s">
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+    </row>
+    <row r="68" spans="1:11" s="1" customFormat="1" ht="16" customHeight="1">
+      <c r="A68" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="42" t="s">
+      <c r="B68" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="42" t="s">
+      <c r="C68" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D68" s="43"/>
-      <c r="E68" s="42" t="s">
+      <c r="D68" s="38"/>
+      <c r="E68" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="F68" s="42" t="s">
+      <c r="F68" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G68" s="42" t="s">
+      <c r="G68" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H68" s="40"/>
-      <c r="I68" s="42" t="s">
+      <c r="H68" s="36"/>
+      <c r="I68" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="J68" s="50" t="s">
+      <c r="J68" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="K68" s="50" t="s">
+      <c r="K68" s="44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
-      <c r="A69" s="44" t="s">
+    <row r="69" spans="1:11" s="1" customFormat="1" ht="16" customHeight="1">
+      <c r="A69" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="45" t="s">
+      <c r="B69" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="45">
+      <c r="C69" s="40">
         <v>18676387686</v>
       </c>
-      <c r="D69" s="43"/>
-      <c r="E69" s="44" t="s">
+      <c r="D69" s="38"/>
+      <c r="E69" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F69" s="46" t="s">
+      <c r="F69" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G69" s="46">
+      <c r="G69" s="41">
         <v>17602055814</v>
       </c>
-      <c r="H69" s="48"/>
-      <c r="I69" s="44" t="s">
+      <c r="H69" s="42"/>
+      <c r="I69" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J69" s="40" t="s">
+      <c r="J69" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="K69" s="40">
+      <c r="K69" s="36">
         <v>13420018232</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
-      <c r="A70" s="44" t="s">
+    <row r="70" spans="1:11" s="1" customFormat="1" ht="16" customHeight="1">
+      <c r="A70" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="46" t="s">
+      <c r="B70" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="45">
+      <c r="C70" s="40">
         <v>13260651055</v>
       </c>
-      <c r="D70" s="43"/>
-      <c r="E70" s="44" t="s">
+      <c r="D70" s="38"/>
+      <c r="E70" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F70" s="46" t="s">
+      <c r="F70" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G70" s="46">
+      <c r="G70" s="41">
         <v>15179992245</v>
       </c>
-      <c r="H70" s="48"/>
-      <c r="I70" s="44" t="s">
+      <c r="H70" s="42"/>
+      <c r="I70" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="44" t="s">
+      <c r="J70" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="K70" s="45">
+      <c r="K70" s="40">
         <v>15302779603</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
-      <c r="A71" s="44" t="s">
+    <row r="71" spans="1:11" s="1" customFormat="1" ht="16" customHeight="1">
+      <c r="A71" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="45" t="s">
+      <c r="B71" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="45">
+      <c r="C71" s="40">
         <v>18374277189</v>
       </c>
-      <c r="D71" s="43"/>
-      <c r="E71" s="44" t="s">
+      <c r="D71" s="38"/>
+      <c r="E71" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F71" s="46" t="s">
+      <c r="F71" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="G71" s="46">
+      <c r="G71" s="41">
         <v>15122212535</v>
       </c>
-      <c r="H71" s="40"/>
-      <c r="I71" s="44" t="s">
+      <c r="H71" s="36"/>
+      <c r="I71" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J71" s="44" t="s">
+      <c r="J71" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="K71" s="45">
+      <c r="K71" s="40">
         <v>18124613787</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
-      <c r="A72" s="44" t="s">
+    <row r="72" spans="1:11" s="1" customFormat="1" ht="16" customHeight="1">
+      <c r="A72" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="44" t="s">
+      <c r="B72" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C72" s="45">
+      <c r="C72" s="40">
         <v>13530208179</v>
       </c>
-      <c r="D72" s="43"/>
-      <c r="E72" s="44" t="s">
+      <c r="D72" s="38"/>
+      <c r="E72" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F72" s="46" t="s">
+      <c r="F72" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G72" s="46">
+      <c r="G72" s="41">
         <v>15870627360</v>
       </c>
-      <c r="H72" s="40"/>
-      <c r="I72" s="44" t="s">
+      <c r="H72" s="36"/>
+      <c r="I72" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J72" s="44" t="s">
+      <c r="J72" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="K72" s="45">
+      <c r="K72" s="40">
         <v>18177404095</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
-      <c r="A73" s="44" t="s">
+    <row r="73" spans="1:11" s="1" customFormat="1" ht="16" customHeight="1">
+      <c r="A73" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="44" t="s">
+      <c r="B73" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="45">
+      <c r="C73" s="40">
         <v>15718223736</v>
       </c>
-      <c r="D73" s="43"/>
-      <c r="E73" s="44" t="s">
+      <c r="D73" s="38"/>
+      <c r="E73" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F73" s="46" t="s">
+      <c r="F73" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="G73" s="46">
+      <c r="G73" s="41">
         <v>18587212294</v>
       </c>
-      <c r="H73" s="49"/>
-      <c r="I73" s="44" t="s">
+      <c r="H73" s="43"/>
+      <c r="I73" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J73" s="40" t="s">
+      <c r="J73" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="K73" s="45">
+      <c r="K73" s="40">
         <v>18874651879</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="17.6" spans="4:11">
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="44" t="s">
+    <row r="74" spans="1:11" s="1" customFormat="1">
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J74" s="40" t="s">
+      <c r="J74" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="K74" s="45">
+      <c r="K74" s="40">
         <v>18310074303</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" ht="17.6" spans="4:11">
-      <c r="D75" s="43"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="51"/>
-    </row>
-    <row r="76" s="1" customFormat="1" ht="20.4" spans="1:11">
-      <c r="A76" s="41" t="s">
+    <row r="75" spans="1:11" s="1" customFormat="1">
+      <c r="D75" s="38"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="45"/>
+    </row>
+    <row r="76" spans="1:11" s="1" customFormat="1" ht="17">
+      <c r="A76" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="B76" s="41"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="47" t="s">
+      <c r="B76" s="49"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="47" t="s">
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="J76" s="47"/>
-      <c r="K76" s="47"/>
-    </row>
-    <row r="77" s="1" customFormat="1" ht="17" customHeight="1" spans="1:11">
-      <c r="A77" s="42" t="s">
+      <c r="J76" s="50"/>
+      <c r="K76" s="50"/>
+    </row>
+    <row r="77" spans="1:11" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A77" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B77" s="42" t="s">
+      <c r="B77" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C77" s="42" t="s">
+      <c r="C77" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D77" s="43"/>
-      <c r="E77" s="42" t="s">
+      <c r="D77" s="38"/>
+      <c r="E77" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="F77" s="42" t="s">
+      <c r="F77" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G77" s="42" t="s">
+      <c r="G77" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H77" s="40"/>
-      <c r="I77" s="42" t="s">
+      <c r="H77" s="36"/>
+      <c r="I77" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="J77" s="42" t="s">
+      <c r="J77" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="K77" s="42" t="s">
+      <c r="K77" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" ht="17" customHeight="1" spans="1:11">
-      <c r="A78" s="44" t="s">
+    <row r="78" spans="1:11" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A78" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="46" t="s">
+      <c r="B78" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="45">
+      <c r="C78" s="40">
         <v>13777126531</v>
       </c>
-      <c r="D78" s="43"/>
-      <c r="E78" s="45" t="s">
+      <c r="D78" s="38"/>
+      <c r="E78" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F78" s="45" t="s">
+      <c r="F78" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="G78" s="45">
+      <c r="G78" s="40">
         <v>15875956239</v>
       </c>
-      <c r="H78" s="40"/>
-      <c r="I78" s="45" t="s">
+      <c r="H78" s="36"/>
+      <c r="I78" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="J78" s="45" t="s">
+      <c r="J78" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="K78" s="45">
+      <c r="K78" s="40">
         <v>15814493346</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" ht="17" customHeight="1" spans="1:11">
-      <c r="A79" s="44" t="s">
+    <row r="79" spans="1:11" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A79" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C79" s="45">
+      <c r="C79" s="40">
         <v>19820223626</v>
       </c>
-      <c r="D79" s="43"/>
-      <c r="E79" s="45" t="s">
+      <c r="D79" s="38"/>
+      <c r="E79" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F79" s="45" t="s">
+      <c r="F79" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="G79" s="45">
+      <c r="G79" s="40">
         <v>13417399783</v>
       </c>
-      <c r="H79" s="40"/>
-      <c r="I79" s="45" t="s">
+      <c r="H79" s="36"/>
+      <c r="I79" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="J79" s="45" t="s">
+      <c r="J79" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="K79" s="45">
+      <c r="K79" s="40">
         <v>13699885905</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" ht="17" customHeight="1" spans="1:11">
-      <c r="A80" s="44" t="s">
+    <row r="80" spans="1:11" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A80" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C80" s="45">
+      <c r="C80" s="40">
         <v>15177756699</v>
       </c>
-      <c r="D80" s="43"/>
-      <c r="E80" s="45" t="s">
+      <c r="D80" s="38"/>
+      <c r="E80" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F80" s="45" t="s">
+      <c r="F80" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="G80" s="45">
+      <c r="G80" s="40">
         <v>15217065094</v>
       </c>
-      <c r="H80" s="40"/>
-      <c r="I80" s="45" t="s">
+      <c r="H80" s="36"/>
+      <c r="I80" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="J80" s="45" t="s">
+      <c r="J80" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="K80" s="45">
+      <c r="K80" s="40">
         <v>17349721510</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" ht="17" customHeight="1" spans="1:11">
-      <c r="A81" s="44" t="s">
+    <row r="81" spans="1:11" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A81" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="46" t="s">
+      <c r="B81" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C81" s="45">
+      <c r="C81" s="40">
         <v>13554752539</v>
       </c>
-      <c r="D81" s="43"/>
-      <c r="E81" s="45" t="s">
+      <c r="D81" s="38"/>
+      <c r="E81" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F81" s="45" t="s">
+      <c r="F81" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="G81" s="45">
+      <c r="G81" s="40">
         <v>18779635799</v>
       </c>
-      <c r="H81" s="40"/>
-      <c r="I81" s="45" t="s">
+      <c r="H81" s="36"/>
+      <c r="I81" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="J81" s="45" t="s">
+      <c r="J81" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="K81" s="45">
+      <c r="K81" s="40">
         <v>18813924005</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" ht="17" customHeight="1" spans="1:11">
-      <c r="A82" s="44" t="s">
+    <row r="82" spans="1:11" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A82" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="46" t="s">
+      <c r="B82" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C82" s="45">
+      <c r="C82" s="40">
         <v>18337631878</v>
       </c>
-      <c r="D82" s="43"/>
-      <c r="E82" s="45" t="s">
+      <c r="D82" s="38"/>
+      <c r="E82" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F82" s="45" t="s">
+      <c r="F82" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G82" s="45">
+      <c r="G82" s="40">
         <v>18829291215</v>
       </c>
-      <c r="H82" s="40"/>
-      <c r="I82" s="45" t="s">
+      <c r="H82" s="36"/>
+      <c r="I82" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="J82" s="45" t="s">
+      <c r="J82" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="K82" s="45">
+      <c r="K82" s="40">
         <v>13620902901</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="1" ht="17" customHeight="1" spans="1:11">
-      <c r="A83" s="44"/>
-      <c r="B83" s="46"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="45" t="s">
+    <row r="83" spans="1:11" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A83" s="39"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="45" t="s">
+      <c r="F83" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="G83" s="45">
+      <c r="G83" s="40">
         <v>13192262350</v>
       </c>
-      <c r="H83" s="40"/>
-      <c r="I83" s="45" t="s">
+      <c r="H83" s="36"/>
+      <c r="I83" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="J83" s="45" t="s">
+      <c r="J83" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="K83" s="45">
+      <c r="K83" s="40">
         <v>13127868673</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" ht="17" customHeight="1" spans="4:10">
-      <c r="D84" s="43"/>
-      <c r="E84" s="45" t="s">
+    <row r="84" spans="1:11" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="D84" s="38"/>
+      <c r="E84" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F84" s="45" t="s">
+      <c r="F84" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="G84" s="45">
+      <c r="G84" s="40">
         <v>15282771862</v>
       </c>
-      <c r="H84" s="40"/>
-      <c r="I84" s="43"/>
-      <c r="J84" s="43"/>
-    </row>
-    <row r="85" s="1" customFormat="1" ht="15.5" customHeight="1" spans="1:10">
-      <c r="A85" s="44"/>
-      <c r="B85" s="46"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="45"/>
-      <c r="G85" s="45"/>
-      <c r="H85" s="40"/>
-      <c r="I85" s="43"/>
-      <c r="J85" s="43"/>
-    </row>
-    <row r="86" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:11">
-      <c r="A86" s="41" t="s">
+      <c r="H84" s="36"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
+    </row>
+    <row r="85" spans="1:11" s="1" customFormat="1" ht="15.5" customHeight="1">
+      <c r="A85" s="39"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+    </row>
+    <row r="86" spans="1:11" s="1" customFormat="1" ht="17.5" customHeight="1">
+      <c r="A86" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="47" t="s">
+      <c r="B86" s="49"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="45"/>
-      <c r="J86" s="45"/>
-      <c r="K86" s="45"/>
-    </row>
-    <row r="87" s="1" customFormat="1" ht="17.6" spans="1:11">
-      <c r="A87" s="42" t="s">
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="40"/>
+    </row>
+    <row r="87" spans="1:11" s="1" customFormat="1">
+      <c r="A87" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B87" s="42" t="s">
+      <c r="B87" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C87" s="42" t="s">
+      <c r="C87" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D87" s="43"/>
-      <c r="E87" s="42" t="s">
+      <c r="D87" s="38"/>
+      <c r="E87" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="F87" s="42" t="s">
+      <c r="F87" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G87" s="42" t="s">
+      <c r="G87" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H87" s="40"/>
-      <c r="I87" s="45"/>
-      <c r="J87" s="45"/>
-      <c r="K87" s="45"/>
-    </row>
-    <row r="88" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
-      <c r="A88" s="45" t="s">
+      <c r="H87" s="36"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="40"/>
+    </row>
+    <row r="88" spans="1:11" s="1" customFormat="1" ht="16" customHeight="1">
+      <c r="A88" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B88" s="45" t="s">
+      <c r="B88" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="45">
+      <c r="C88" s="40">
         <v>15838112352</v>
       </c>
-      <c r="D88" s="43"/>
-      <c r="E88" s="40" t="s">
+      <c r="D88" s="38"/>
+      <c r="E88" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F88" s="48" t="s">
+      <c r="F88" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="G88" s="40">
+      <c r="G88" s="36">
         <v>16620143375</v>
       </c>
-      <c r="H88" s="40"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="40"/>
-      <c r="K88" s="39"/>
-    </row>
-    <row r="89" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
-      <c r="A89" s="45" t="s">
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="35"/>
+    </row>
+    <row r="89" spans="1:11" s="1" customFormat="1" ht="16" customHeight="1">
+      <c r="A89" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B89" s="45" t="s">
+      <c r="B89" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C89" s="45">
+      <c r="C89" s="40">
         <v>18002583762</v>
       </c>
-      <c r="D89" s="43"/>
-      <c r="E89" s="40" t="s">
+      <c r="D89" s="38"/>
+      <c r="E89" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="40" t="s">
+      <c r="F89" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G89" s="40">
+      <c r="G89" s="36">
         <v>18094170961</v>
       </c>
-      <c r="H89" s="40"/>
-      <c r="I89" s="47"/>
-      <c r="J89" s="47"/>
-      <c r="K89" s="47"/>
-    </row>
-    <row r="90" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
-      <c r="A90" s="45" t="s">
+      <c r="H89" s="36"/>
+      <c r="I89" s="50"/>
+      <c r="J89" s="50"/>
+      <c r="K89" s="50"/>
+    </row>
+    <row r="90" spans="1:11" s="1" customFormat="1" ht="16" customHeight="1">
+      <c r="A90" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B90" s="45" t="s">
+      <c r="B90" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C90" s="45">
+      <c r="C90" s="40">
         <v>17680312454</v>
       </c>
-      <c r="D90" s="43"/>
-      <c r="E90" s="43"/>
-      <c r="F90" s="43"/>
-      <c r="G90" s="43"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="42"/>
-      <c r="J90" s="42"/>
-      <c r="K90" s="42"/>
-    </row>
-    <row r="91" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
-      <c r="A91" s="45" t="s">
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="37"/>
+      <c r="K90" s="37"/>
+    </row>
+    <row r="91" spans="1:11" s="1" customFormat="1" ht="16" customHeight="1">
+      <c r="A91" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="45" t="s">
+      <c r="B91" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C91" s="45">
+      <c r="C91" s="40">
         <v>18968931517</v>
       </c>
-      <c r="D91" s="43"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="43"/>
-      <c r="G91" s="43"/>
-      <c r="H91" s="40"/>
-      <c r="I91" s="40"/>
-      <c r="J91" s="45"/>
-      <c r="K91" s="45"/>
-    </row>
-    <row r="92" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
-      <c r="A92" s="45" t="s">
+      <c r="D91" s="38"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="40"/>
+    </row>
+    <row r="92" spans="1:11" s="1" customFormat="1" ht="16" customHeight="1">
+      <c r="A92" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="45" t="s">
+      <c r="B92" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C92" s="45">
+      <c r="C92" s="40">
         <v>17744949221</v>
       </c>
-      <c r="D92" s="43"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="40"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="45"/>
-      <c r="K92" s="45"/>
-    </row>
-    <row r="93" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
-      <c r="A93" s="45" t="s">
+      <c r="D92" s="38"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="40"/>
+      <c r="K92" s="40"/>
+    </row>
+    <row r="93" spans="1:11" s="1" customFormat="1" ht="16" customHeight="1">
+      <c r="A93" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B93" s="45" t="s">
+      <c r="B93" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C93" s="45">
+      <c r="C93" s="40">
         <v>19969013901</v>
       </c>
-      <c r="D93" s="43"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43"/>
-      <c r="G93" s="43"/>
-      <c r="H93" s="40"/>
-      <c r="I93" s="40"/>
-      <c r="J93" s="45"/>
-      <c r="K93" s="45"/>
-    </row>
-    <row r="94" s="1" customFormat="1" ht="17.6" spans="4:11">
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="43"/>
-      <c r="G94" s="43"/>
-      <c r="H94" s="40"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="45"/>
-      <c r="K94" s="45"/>
-    </row>
-    <row r="95" s="1" customFormat="1" ht="17.6" spans="4:11">
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="45"/>
-      <c r="K95" s="45"/>
-    </row>
-    <row r="96" s="1" customFormat="1" ht="17.6" spans="4:11">
-      <c r="D96" s="43"/>
-      <c r="E96" s="43"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="40"/>
-      <c r="I96" s="40"/>
-      <c r="J96" s="45"/>
-      <c r="K96" s="45"/>
-    </row>
-    <row r="97" s="1" customFormat="1" ht="17.6" spans="4:11">
-      <c r="D97" s="43"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="43"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="40"/>
-      <c r="I97" s="40"/>
-      <c r="J97" s="40"/>
-      <c r="K97" s="39"/>
-    </row>
-    <row r="98" s="1" customFormat="1" ht="20.4" spans="4:11">
-      <c r="D98" s="43"/>
-      <c r="E98" s="43"/>
-      <c r="F98" s="43"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="40"/>
-      <c r="I98" s="47"/>
-      <c r="J98" s="47"/>
-      <c r="K98" s="47"/>
-    </row>
-    <row r="99" s="1" customFormat="1" ht="17.6" spans="4:11">
-      <c r="D99" s="43"/>
-      <c r="E99" s="43"/>
-      <c r="F99" s="43"/>
-      <c r="G99" s="43"/>
-      <c r="H99" s="40"/>
-      <c r="I99" s="42"/>
-      <c r="J99" s="42"/>
-      <c r="K99" s="42"/>
-    </row>
-    <row r="100" s="1" customFormat="1" ht="17.6" spans="1:11">
-      <c r="A100" s="39"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="40"/>
-      <c r="E100" s="43"/>
-      <c r="F100" s="43"/>
-      <c r="G100" s="43"/>
-      <c r="H100" s="40"/>
-      <c r="I100" s="40"/>
-      <c r="J100" s="46"/>
-      <c r="K100" s="45"/>
-    </row>
-    <row r="101" s="1" customFormat="1" ht="17.6" spans="1:11">
-      <c r="A101" s="39"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="40"/>
-      <c r="E101" s="40"/>
-      <c r="F101" s="40"/>
-      <c r="G101" s="40"/>
-      <c r="H101" s="40"/>
-      <c r="I101" s="40"/>
-      <c r="J101" s="46"/>
-      <c r="K101" s="45"/>
-    </row>
-    <row r="102" s="1" customFormat="1" ht="17.6" spans="4:11">
-      <c r="D102" s="43"/>
-      <c r="E102" s="43"/>
-      <c r="F102" s="43"/>
-      <c r="G102" s="43"/>
-      <c r="H102" s="40"/>
-      <c r="I102" s="40"/>
-      <c r="J102" s="44"/>
-      <c r="K102" s="45"/>
-    </row>
-    <row r="103" s="1" customFormat="1" ht="17.6" spans="4:11">
-      <c r="D103" s="43"/>
-      <c r="E103" s="43"/>
-      <c r="F103" s="43"/>
-      <c r="G103" s="43"/>
-      <c r="H103" s="40"/>
-      <c r="I103" s="40"/>
-      <c r="J103" s="44"/>
-      <c r="K103" s="45"/>
-    </row>
-    <row r="104" s="1" customFormat="1" ht="17.6" spans="4:11">
-      <c r="D104" s="43"/>
-      <c r="E104" s="43"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="43"/>
-      <c r="H104" s="40"/>
-      <c r="I104" s="40"/>
-      <c r="J104" s="46"/>
-      <c r="K104" s="45"/>
-    </row>
-    <row r="105" s="1" customFormat="1" ht="17.6" spans="4:11">
-      <c r="D105" s="43"/>
-      <c r="E105" s="43"/>
-      <c r="F105" s="43"/>
-      <c r="G105" s="43"/>
-      <c r="H105" s="43"/>
-      <c r="I105" s="40"/>
-      <c r="J105" s="46"/>
-      <c r="K105" s="45"/>
-    </row>
-    <row r="106" s="1" customFormat="1" spans="4:10">
-      <c r="D106" s="43"/>
-      <c r="E106" s="43"/>
-      <c r="F106" s="43"/>
-      <c r="G106" s="43"/>
-      <c r="H106" s="43"/>
-      <c r="I106" s="43"/>
-      <c r="J106" s="43"/>
-    </row>
-    <row r="107" s="1" customFormat="1" spans="4:10">
-      <c r="D107" s="43"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="43"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="40"/>
+      <c r="K93" s="40"/>
+    </row>
+    <row r="94" spans="1:11" s="1" customFormat="1">
+      <c r="D94" s="38"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="38"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="40"/>
+      <c r="K94" s="40"/>
+    </row>
+    <row r="95" spans="1:11" s="1" customFormat="1">
+      <c r="D95" s="38"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="38"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="40"/>
+      <c r="K95" s="40"/>
+    </row>
+    <row r="96" spans="1:11" s="1" customFormat="1">
+      <c r="D96" s="38"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="38"/>
+      <c r="G96" s="38"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="40"/>
+      <c r="K96" s="40"/>
+    </row>
+    <row r="97" spans="1:11" s="1" customFormat="1">
+      <c r="D97" s="38"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="35"/>
+    </row>
+    <row r="98" spans="1:11" s="1" customFormat="1" ht="17">
+      <c r="D98" s="38"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="50"/>
+      <c r="J98" s="50"/>
+      <c r="K98" s="50"/>
+    </row>
+    <row r="99" spans="1:11" s="1" customFormat="1">
+      <c r="D99" s="38"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="38"/>
+      <c r="G99" s="38"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="37"/>
+      <c r="J99" s="37"/>
+      <c r="K99" s="37"/>
+    </row>
+    <row r="100" spans="1:11" s="1" customFormat="1">
+      <c r="A100" s="35"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="38"/>
+      <c r="G100" s="38"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="41"/>
+      <c r="K100" s="40"/>
+    </row>
+    <row r="101" spans="1:11" s="1" customFormat="1">
+      <c r="A101" s="35"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="41"/>
+      <c r="K101" s="40"/>
+    </row>
+    <row r="102" spans="1:11" s="1" customFormat="1">
+      <c r="D102" s="38"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="38"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="39"/>
+      <c r="K102" s="40"/>
+    </row>
+    <row r="103" spans="1:11" s="1" customFormat="1">
+      <c r="D103" s="38"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="38"/>
+      <c r="G103" s="38"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="39"/>
+      <c r="K103" s="40"/>
+    </row>
+    <row r="104" spans="1:11" s="1" customFormat="1">
+      <c r="D104" s="38"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="38"/>
+      <c r="G104" s="38"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="41"/>
+      <c r="K104" s="40"/>
+    </row>
+    <row r="105" spans="1:11" s="1" customFormat="1">
+      <c r="D105" s="38"/>
+      <c r="E105" s="38"/>
+      <c r="F105" s="38"/>
+      <c r="G105" s="38"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="41"/>
+      <c r="K105" s="40"/>
+    </row>
+    <row r="106" spans="1:11" s="1" customFormat="1">
+      <c r="D106" s="38"/>
+      <c r="E106" s="38"/>
+      <c r="F106" s="38"/>
+      <c r="G106" s="38"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="38"/>
+      <c r="J106" s="38"/>
+    </row>
+    <row r="107" spans="1:11" s="1" customFormat="1">
+      <c r="D107" s="38"/>
+      <c r="E107" s="38"/>
+      <c r="F107" s="38"/>
+      <c r="G107" s="38"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="38"/>
+      <c r="J107" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:K65"/>
+  <autoFilter ref="A3:K65" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="43">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="I89:K89"/>
     <mergeCell ref="I98:K98"/>
     <mergeCell ref="A4:A5"/>
@@ -4819,6 +4209,16 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="I67:K67"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
@@ -4830,15 +4230,9 @@
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>